--- a/data/hotels_by_city/Denver/Denver_shard_49.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_49.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d119941-Reviews-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Crowne-Plaza-Denver.h6727.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,910 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r600801602-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>119941</t>
+  </si>
+  <si>
+    <t>600801602</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Best check in experience ever!</t>
+  </si>
+  <si>
+    <t>We checked in very early, as we had an early flight. I was pleased to hear that the room was not only ready early, but also that we were upgraded to the top floor! Jenna was the person who checked us in, and she was, hands down, the best person I’ve ever encountered in the Hospitality industry! I work in lodging, and Crowne Plaza is very lucky to have her on the team! She was so friendly, and went above and beyond to make sure we have a great stay.She also found out that is was a birthday trip, and she gave us tickets to a show at Red Rock Ampitheater that another guest was unable to use. We are SO excited to be able to see a show at the best venue in the States! Also, our room is beautiful, and the view is INCREDIBLE! Jenna, thank you so much for making our stay special! We’ve only been in Denver for a few hours, but we’re falling in love with it! Management, if you’re reading this, she deserves a promotion!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We checked in very early, as we had an early flight. I was pleased to hear that the room was not only ready early, but also that we were upgraded to the top floor! Jenna was the person who checked us in, and she was, hands down, the best person I’ve ever encountered in the Hospitality industry! I work in lodging, and Crowne Plaza is very lucky to have her on the team! She was so friendly, and went above and beyond to make sure we have a great stay.She also found out that is was a birthday trip, and she gave us tickets to a show at Red Rock Ampitheater that another guest was unable to use. We are SO excited to be able to see a show at the best venue in the States! Also, our room is beautiful, and the view is INCREDIBLE! Jenna, thank you so much for making our stay special! We’ve only been in Denver for a few hours, but we’re falling in love with it! Management, if you’re reading this, she deserves a promotion!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r600779960-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>600779960</t>
+  </si>
+  <si>
+    <t>Great place to stay in Denver!</t>
+  </si>
+  <si>
+    <t>My family and I came for the Kentucky derby party in May and had an awesome time! The hotel is totally upgraded and the rooms are spacious, clean and relaxing. We had drinks at the Lockwood bar the first night and it was so much fun. The bartender recommended cocktails for us and even made my sister a random drink based on her preferences.the location is perfect, you’re one block over from16th street mall to jump on the (free) mall ride, bonus!! And get to the Kentucky derby party. They also have a 24 hour market with snacks and drinks, which we took advantage off every night. Its upgraded with a scanner, so you can just buy it real quick without getting in line at the front desk. It’s very easy to stay at this hotel because of all the upgrades and technology focused amenities and you’re close to everything in Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My family and I came for the Kentucky derby party in May and had an awesome time! The hotel is totally upgraded and the rooms are spacious, clean and relaxing. We had drinks at the Lockwood bar the first night and it was so much fun. The bartender recommended cocktails for us and even made my sister a random drink based on her preferences.the location is perfect, you’re one block over from16th street mall to jump on the (free) mall ride, bonus!! And get to the Kentucky derby party. They also have a 24 hour market with snacks and drinks, which we took advantage off every night. Its upgraded with a scanner, so you can just buy it real quick without getting in line at the front desk. It’s very easy to stay at this hotel because of all the upgrades and technology focused amenities and you’re close to everything in Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r598978883-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598978883</t>
+  </si>
+  <si>
+    <t>July 23, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r598154401-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598154401</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in Downtown Denver for an event that was nearby at the Sheraton. The location itself is very convenient, and if you need to go anywhere further within the downtown area an Uber is less than $10. 
+I checked in on a Tuesday and stayed through Saturday and it was very quiet in the lobby and lounge area until Thursday when the weekend started to approach. After that every time I walked through the lobby it seemed packed with people just sitting there waiting for something.
+One pro:
+Location, location, location. It's just two blocks from 16th street which is known as the Mall. Take a right out of the hotel and walk two blocks. You'll pass through The Pavillion shopping center on the way which offers some options for food and shopping, as well. 
+There's a free bus that runs up and down the mall (16th street, two blocks from the hotel). 
+The room itself is good quality - the one downfall is that there is not a chest of drawers. There is, however a sofa, so my clothes that I didn't hang up ended up on half my sofa. 
+For the first day I was there the housekeeping was great. Then the staff changed and I had to call to ask them to replenish my towels, rotate my dirty coffee cup and empty my garbage, which I found bizarre. I normally leave a tip...I stayed at this hotel in Downtown Denver for an event that was nearby at the Sheraton. The location itself is very convenient, and if you need to go anywhere further within the downtown area an Uber is less than $10. I checked in on a Tuesday and stayed through Saturday and it was very quiet in the lobby and lounge area until Thursday when the weekend started to approach. After that every time I walked through the lobby it seemed packed with people just sitting there waiting for something.One pro:Location, location, location. It's just two blocks from 16th street which is known as the Mall. Take a right out of the hotel and walk two blocks. You'll pass through The Pavillion shopping center on the way which offers some options for food and shopping, as well. There's a free bus that runs up and down the mall (16th street, two blocks from the hotel). The room itself is good quality - the one downfall is that there is not a chest of drawers. There is, however a sofa, so my clothes that I didn't hang up ended up on half my sofa. For the first day I was there the housekeeping was great. Then the staff changed and I had to call to ask them to replenish my towels, rotate my dirty coffee cup and empty my garbage, which I found bizarre. I normally leave a tip for housekeeping, but that is not happening here due to the lack of service. There is a little self service convenience store in the lobby with inflated prices, but it's nice to have since the nearest drug store is a couple blocks away (7-11). The room itself was mostly quiet - the only thing I noticed was that when someone was in the bathroom on the other side of my bathroom, I could hear them if they spoke.An Uber X to the airport is between $40 and $50. You can also walk two blocks to 16th and take the free mall bus to Union Station. There you can get a $9 A Train to the airport (that was what I was told by the hotel for a cheaper transport option). One other odd thing: I had to download an app for my smart phone to change the TV channels. There was no menu or book about hotel amenities in the room, so it said to download the IHG app to find out more about the hotel. When I did, it seemed like that app was only to make reservations.I had two meals in this hotel: one breakfast which was $18.95 for the full breakfast buffet. one lunch which was about $20 with a grilled sandwich and soda.  If you go down the mall - two blocks to the right and then a right on 16th, you will see that there's a Krispy Kreme, Starbucks, Noodles &amp; Co, Potbelly (more budget friendly food) on the opposite side of the mall and at the end of that street to the left, there's a lovely breakfast and lunch place called the Delectable Egg. Note, if you go to the Mall and go to the left, there are more and more options, but it also gets a bit more and more urban and seedy the further you travel. I had to go to TJ Maxx to buy another suitcase, and I felt like I had to keep a close hold on my handbag. It wasn't terrible if you a familiar with a city, but if you are not it's something to be aware of. Overall, I'd recommend this place and would consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in Downtown Denver for an event that was nearby at the Sheraton. The location itself is very convenient, and if you need to go anywhere further within the downtown area an Uber is less than $10. 
+I checked in on a Tuesday and stayed through Saturday and it was very quiet in the lobby and lounge area until Thursday when the weekend started to approach. After that every time I walked through the lobby it seemed packed with people just sitting there waiting for something.
+One pro:
+Location, location, location. It's just two blocks from 16th street which is known as the Mall. Take a right out of the hotel and walk two blocks. You'll pass through The Pavillion shopping center on the way which offers some options for food and shopping, as well. 
+There's a free bus that runs up and down the mall (16th street, two blocks from the hotel). 
+The room itself is good quality - the one downfall is that there is not a chest of drawers. There is, however a sofa, so my clothes that I didn't hang up ended up on half my sofa. 
+For the first day I was there the housekeeping was great. Then the staff changed and I had to call to ask them to replenish my towels, rotate my dirty coffee cup and empty my garbage, which I found bizarre. I normally leave a tip...I stayed at this hotel in Downtown Denver for an event that was nearby at the Sheraton. The location itself is very convenient, and if you need to go anywhere further within the downtown area an Uber is less than $10. I checked in on a Tuesday and stayed through Saturday and it was very quiet in the lobby and lounge area until Thursday when the weekend started to approach. After that every time I walked through the lobby it seemed packed with people just sitting there waiting for something.One pro:Location, location, location. It's just two blocks from 16th street which is known as the Mall. Take a right out of the hotel and walk two blocks. You'll pass through The Pavillion shopping center on the way which offers some options for food and shopping, as well. There's a free bus that runs up and down the mall (16th street, two blocks from the hotel). The room itself is good quality - the one downfall is that there is not a chest of drawers. There is, however a sofa, so my clothes that I didn't hang up ended up on half my sofa. For the first day I was there the housekeeping was great. Then the staff changed and I had to call to ask them to replenish my towels, rotate my dirty coffee cup and empty my garbage, which I found bizarre. I normally leave a tip for housekeeping, but that is not happening here due to the lack of service. There is a little self service convenience store in the lobby with inflated prices, but it's nice to have since the nearest drug store is a couple blocks away (7-11). The room itself was mostly quiet - the only thing I noticed was that when someone was in the bathroom on the other side of my bathroom, I could hear them if they spoke.An Uber X to the airport is between $40 and $50. You can also walk two blocks to 16th and take the free mall bus to Union Station. There you can get a $9 A Train to the airport (that was what I was told by the hotel for a cheaper transport option). One other odd thing: I had to download an app for my smart phone to change the TV channels. There was no menu or book about hotel amenities in the room, so it said to download the IHG app to find out more about the hotel. When I did, it seemed like that app was only to make reservations.I had two meals in this hotel: one breakfast which was $18.95 for the full breakfast buffet. one lunch which was about $20 with a grilled sandwich and soda.  If you go down the mall - two blocks to the right and then a right on 16th, you will see that there's a Krispy Kreme, Starbucks, Noodles &amp; Co, Potbelly (more budget friendly food) on the opposite side of the mall and at the end of that street to the left, there's a lovely breakfast and lunch place called the Delectable Egg. Note, if you go to the Mall and go to the left, there are more and more options, but it also gets a bit more and more urban and seedy the further you travel. I had to go to TJ Maxx to buy another suitcase, and I felt like I had to keep a close hold on my handbag. It wasn't terrible if you a familiar with a city, but if you are not it's something to be aware of. Overall, I'd recommend this place and would consider staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r595648230-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595648230</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently situated for all the tourist areas. Our double room on the top floor was very quiet and quite spacious even though there was not much storage space.
+Check in seemed to take forever, which was not good after a long haul flight and driving a hire car from the airport, only to find road closures and diversions in place which made the hotel difficult to find. Apparently the ‘hotel’s system was down’. The problem was that it kept kicking in so we gave all our details only for the system to crash again and so we had to start from the beginning again and again....
+Then the credit card system didn’t work for charging our card for incidentals.  We offered to pay the $100 deposit in cash but that was unacceptable.  By this time we had a queue behind us and we were nearly falling asleep on our feet. So we suggested we went for a drink at the bar and would come back later. This we did and eventually got into our room more than 2 hours after arrival.
+The next morning after a good night’s sleep we felt better and breakfast exceeded our expectations. The waitress (unfortunately we did not get her name) was great and suggested lots of places to call at both in Denver and on our subsequent travels.
+We did think that the car park was expensive but it was convenient...This hotel is conveniently situated for all the tourist areas. Our double room on the top floor was very quiet and quite spacious even though there was not much storage space.Check in seemed to take forever, which was not good after a long haul flight and driving a hire car from the airport, only to find road closures and diversions in place which made the hotel difficult to find. Apparently the ‘hotel’s system was down’. The problem was that it kept kicking in so we gave all our details only for the system to crash again and so we had to start from the beginning again and again....Then the credit card system didn’t work for charging our card for incidentals.  We offered to pay the $100 deposit in cash but that was unacceptable.  By this time we had a queue behind us and we were nearly falling asleep on our feet. So we suggested we went for a drink at the bar and would come back later. This we did and eventually got into our room more than 2 hours after arrival.The next morning after a good night’s sleep we felt better and breakfast exceeded our expectations. The waitress (unfortunately we did not get her name) was great and suggested lots of places to call at both in Denver and on our subsequent travels.We did think that the car park was expensive but it was convenient and we felt it was safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently situated for all the tourist areas. Our double room on the top floor was very quiet and quite spacious even though there was not much storage space.
+Check in seemed to take forever, which was not good after a long haul flight and driving a hire car from the airport, only to find road closures and diversions in place which made the hotel difficult to find. Apparently the ‘hotel’s system was down’. The problem was that it kept kicking in so we gave all our details only for the system to crash again and so we had to start from the beginning again and again....
+Then the credit card system didn’t work for charging our card for incidentals.  We offered to pay the $100 deposit in cash but that was unacceptable.  By this time we had a queue behind us and we were nearly falling asleep on our feet. So we suggested we went for a drink at the bar and would come back later. This we did and eventually got into our room more than 2 hours after arrival.
+The next morning after a good night’s sleep we felt better and breakfast exceeded our expectations. The waitress (unfortunately we did not get her name) was great and suggested lots of places to call at both in Denver and on our subsequent travels.
+We did think that the car park was expensive but it was convenient...This hotel is conveniently situated for all the tourist areas. Our double room on the top floor was very quiet and quite spacious even though there was not much storage space.Check in seemed to take forever, which was not good after a long haul flight and driving a hire car from the airport, only to find road closures and diversions in place which made the hotel difficult to find. Apparently the ‘hotel’s system was down’. The problem was that it kept kicking in so we gave all our details only for the system to crash again and so we had to start from the beginning again and again....Then the credit card system didn’t work for charging our card for incidentals.  We offered to pay the $100 deposit in cash but that was unacceptable.  By this time we had a queue behind us and we were nearly falling asleep on our feet. So we suggested we went for a drink at the bar and would come back later. This we did and eventually got into our room more than 2 hours after arrival.The next morning after a good night’s sleep we felt better and breakfast exceeded our expectations. The waitress (unfortunately we did not get her name) was great and suggested lots of places to call at both in Denver and on our subsequent travels.We did think that the car park was expensive but it was convenient and we felt it was safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r594905525-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594905525</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Quiet rooms, nice downtown location</t>
+  </si>
+  <si>
+    <t>The rooms were quiet, the staff friendly, and there is a convenient restaurant on the first floor of the hotel.  The hotel is in walking distance of plenty of downtown attractions as well as a bike trail.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, Front Office Manager at Crowne Plaza Denver, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The rooms were quiet, the staff friendly, and there is a convenient restaurant on the first floor of the hotel.  The hotel is in walking distance of plenty of downtown attractions as well as a bike trail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r592471314-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592471314</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Horrible customer service with “security”. We’re told at check in there was a mix up with rooms so we ended up in a suite with 4 people. The pull out bed had no bedding in the room. We called for it and they brought us a roll away bed with sheets and a pillow only. We had to ask for a blanket and received horrible attitude. They asked us if we needed anything else so they didn’t have to come to our room again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r592188852-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592188852</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Horribly Lacking in Customer Service and Professionalism</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a conference, and will NEVER stay here again. 
+I specifically booked the "Worklife Double Queen", and even added a note on the reservation that 2 beds were needed - as I was traveling with a colleague. Three days prior to arriving, I called the hotel and spoke with the front desk to ensure that they would be able to provide me with 2 beds. The girl reassured me that they had the reservation booked for a double bed room, and she also said she would add an additional note for check in. When I arrived, the room was tiny, with ONE bed. I went back downstairs to ask to switch rooms and I was rudely told that I had booked a standard room (beds are at the hotel's discretion). Even after I pulled up the email confirmation, with my notation and explained that I had confirmed with someone a few days before, she insisted that there was nothing they could do and that the hotel was sold out. HOW IS THIS POSSIBLE??? It seems to me that they oversold the hotel and gave away my room, and didn't want to take responsibility for it. After several rounds of arguing, I said the least they could do would be to provide a rollaway bed. She reluctantly agreed to request one for me, but not before huffing "I don't know if we have any available". AGAIN, HOW...I booked this hotel for a conference, and will NEVER stay here again. I specifically booked the "Worklife Double Queen", and even added a note on the reservation that 2 beds were needed - as I was traveling with a colleague. Three days prior to arriving, I called the hotel and spoke with the front desk to ensure that they would be able to provide me with 2 beds. The girl reassured me that they had the reservation booked for a double bed room, and she also said she would add an additional note for check in. When I arrived, the room was tiny, with ONE bed. I went back downstairs to ask to switch rooms and I was rudely told that I had booked a standard room (beds are at the hotel's discretion). Even after I pulled up the email confirmation, with my notation and explained that I had confirmed with someone a few days before, she insisted that there was nothing they could do and that the hotel was sold out. HOW IS THIS POSSIBLE??? It seems to me that they oversold the hotel and gave away my room, and didn't want to take responsibility for it. After several rounds of arguing, I said the least they could do would be to provide a rollaway bed. She reluctantly agreed to request one for me, but not before huffing "I don't know if we have any available". AGAIN, HOW IS THIS POSSIBLE???After going on to my conference, and returning nearly 6 hours later, I returned to find that the requested rollaway had not arrived. I called down and was told they would bring one up shortly. Another 2 hours passed (I went on to dinner), and I came back to find that a rollaway was indeed delivered. However, it was literally standing up, still strapped to a cart, blocking the bathroom door. I called down AGAIN, asking this time to speak to the manager. I explained the whole ordeal, which she seemed confused by and assured me that they would send someone up right away. Thankfully a few moments later, she arrived with housekeeping to set up the bed. Unfortunately the room was so small, it only accommodated the bed (which is a glorified hospital bed) by removing the additional furniture. For the remainder of our stay, we had to climb over the bed to get anywhere in the room, and did not have access to the desk.I wish that were the worst part, but of course, there's always the final straw. On the last morning of our stay, I received the itemized receipt, and found that we were CHARGED for the rollaway bed!! I called down and spoke to the front desk to complain, and was told that he couldn't reverse the charges, but could offer us "complementary late check out" (1 additional hour), which is normally $30. Wow. I guess I should be so grateful at their abysmal attempt at generosity.I am beyond frustrated by the lack of care, concern, or professionalism displayed at this hotel. Rest assured, that I will never stay here again, and will avoid this chain altogether. MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a conference, and will NEVER stay here again. 
+I specifically booked the "Worklife Double Queen", and even added a note on the reservation that 2 beds were needed - as I was traveling with a colleague. Three days prior to arriving, I called the hotel and spoke with the front desk to ensure that they would be able to provide me with 2 beds. The girl reassured me that they had the reservation booked for a double bed room, and she also said she would add an additional note for check in. When I arrived, the room was tiny, with ONE bed. I went back downstairs to ask to switch rooms and I was rudely told that I had booked a standard room (beds are at the hotel's discretion). Even after I pulled up the email confirmation, with my notation and explained that I had confirmed with someone a few days before, she insisted that there was nothing they could do and that the hotel was sold out. HOW IS THIS POSSIBLE??? It seems to me that they oversold the hotel and gave away my room, and didn't want to take responsibility for it. After several rounds of arguing, I said the least they could do would be to provide a rollaway bed. She reluctantly agreed to request one for me, but not before huffing "I don't know if we have any available". AGAIN, HOW...I booked this hotel for a conference, and will NEVER stay here again. I specifically booked the "Worklife Double Queen", and even added a note on the reservation that 2 beds were needed - as I was traveling with a colleague. Three days prior to arriving, I called the hotel and spoke with the front desk to ensure that they would be able to provide me with 2 beds. The girl reassured me that they had the reservation booked for a double bed room, and she also said she would add an additional note for check in. When I arrived, the room was tiny, with ONE bed. I went back downstairs to ask to switch rooms and I was rudely told that I had booked a standard room (beds are at the hotel's discretion). Even after I pulled up the email confirmation, with my notation and explained that I had confirmed with someone a few days before, she insisted that there was nothing they could do and that the hotel was sold out. HOW IS THIS POSSIBLE??? It seems to me that they oversold the hotel and gave away my room, and didn't want to take responsibility for it. After several rounds of arguing, I said the least they could do would be to provide a rollaway bed. She reluctantly agreed to request one for me, but not before huffing "I don't know if we have any available". AGAIN, HOW IS THIS POSSIBLE???After going on to my conference, and returning nearly 6 hours later, I returned to find that the requested rollaway had not arrived. I called down and was told they would bring one up shortly. Another 2 hours passed (I went on to dinner), and I came back to find that a rollaway was indeed delivered. However, it was literally standing up, still strapped to a cart, blocking the bathroom door. I called down AGAIN, asking this time to speak to the manager. I explained the whole ordeal, which she seemed confused by and assured me that they would send someone up right away. Thankfully a few moments later, she arrived with housekeeping to set up the bed. Unfortunately the room was so small, it only accommodated the bed (which is a glorified hospital bed) by removing the additional furniture. For the remainder of our stay, we had to climb over the bed to get anywhere in the room, and did not have access to the desk.I wish that were the worst part, but of course, there's always the final straw. On the last morning of our stay, I received the itemized receipt, and found that we were CHARGED for the rollaway bed!! I called down and spoke to the front desk to complain, and was told that he couldn't reverse the charges, but could offer us "complementary late check out" (1 additional hour), which is normally $30. Wow. I guess I should be so grateful at their abysmal attempt at generosity.I am beyond frustrated by the lack of care, concern, or professionalism displayed at this hotel. Rest assured, that I will never stay here again, and will avoid this chain altogether. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r592096164-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592096164</t>
+  </si>
+  <si>
+    <t>Great location, recently renovated</t>
+  </si>
+  <si>
+    <t>Right in the middle of just about everything in Denver, rooms were very clean and recently updated.  Bed was really comfortable, staff was great.  Only downside was the $35.00 fee for parking in the garage.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Right in the middle of just about everything in Denver, rooms were very clean and recently updated.  Bed was really comfortable, staff was great.  Only downside was the $35.00 fee for parking in the garage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r590386454-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590386454</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Pleasent Stay For a Few Nights</t>
+  </si>
+  <si>
+    <t>We had booked 2 rooms booked under the same name, yet upon arrival the rooms were on floor 9 and floor 14, which not ideal if the second room is for children! The rooms were spacious and the bed were large and very comfy. The pool is on the 6th floor but is a decent size and depth for swimming. We did not eat in the restaurant here as there were so many other places to try in the city. We did have a coffee and a diet coke, which totalled nearly $10, when we queried this the hotel staff apologised and removed some of the incorrect charge. This hotel is in an excellently central location and is perfect for short, or long stays in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had booked 2 rooms booked under the same name, yet upon arrival the rooms were on floor 9 and floor 14, which not ideal if the second room is for children! The rooms were spacious and the bed were large and very comfy. The pool is on the 6th floor but is a decent size and depth for swimming. We did not eat in the restaurant here as there were so many other places to try in the city. We did have a coffee and a diet coke, which totalled nearly $10, when we queried this the hotel staff apologised and removed some of the incorrect charge. This hotel is in an excellently central location and is perfect for short, or long stays in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r590107478-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590107478</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>As most of the reviews indicated, the Crowne Plaza on Glenarm Place, Denver is well situated a block from the 16th St. Mall and 2 blocks from the Convention Center. The restaurant/bar is good with service starts for lunch and goes late into the night. The roof pool is lovely and heated, fitness has treadmills, elliptical and bikes. The rooms have comfortable new beds. My only objection is that our room had absolutely no drawers or shelves or anywhere to put ones stuff other than a small closet with a few hangers. May not be an issue for most. We were here 5 days and it was hard when you couldn’t unpack.MoreShow less</t>
+  </si>
+  <si>
+    <t>As most of the reviews indicated, the Crowne Plaza on Glenarm Place, Denver is well situated a block from the 16th St. Mall and 2 blocks from the Convention Center. The restaurant/bar is good with service starts for lunch and goes late into the night. The roof pool is lovely and heated, fitness has treadmills, elliptical and bikes. The rooms have comfortable new beds. My only objection is that our room had absolutely no drawers or shelves or anywhere to put ones stuff other than a small closet with a few hangers. May not be an issue for most. We were here 5 days and it was hard when you couldn’t unpack.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r589975742-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>589975742</t>
+  </si>
+  <si>
+    <t>Friendly staff with lovely service - walking distance from 16th St Mall/Colorado Convention Center</t>
+  </si>
+  <si>
+    <t>I am an IHG Rewards member and decided to use my Rewards Points with Crowne Plaza Denver for my Denver Comic Con trip. In the past, I have stayed at other hotels close to the Colorado Convention Center and am delighted to say that my stay with Crowne Plaza was friendly, comfortable, accommodating and all around fantastic. Personal favorites: 1. Close to the 16th Street Mall District and the Colorado Convention Center - most things are in walking distance. 2. The restaurant/bar within the hotel - our food was delicious. 3. The "To Go" store with a kiosk checkout within the hotel - I got Tylenol and snacks in one stop. 4. Parking garage at a reasonable rate. and last, but certainly not least, 5. the very friendly staff!! There were only two drawbacks - the elevators. The doors close insanely fast and the fact that the large luggage carts are few and far between with folks waiting all the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am an IHG Rewards member and decided to use my Rewards Points with Crowne Plaza Denver for my Denver Comic Con trip. In the past, I have stayed at other hotels close to the Colorado Convention Center and am delighted to say that my stay with Crowne Plaza was friendly, comfortable, accommodating and all around fantastic. Personal favorites: 1. Close to the 16th Street Mall District and the Colorado Convention Center - most things are in walking distance. 2. The restaurant/bar within the hotel - our food was delicious. 3. The "To Go" store with a kiosk checkout within the hotel - I got Tylenol and snacks in one stop. 4. Parking garage at a reasonable rate. and last, but certainly not least, 5. the very friendly staff!! There were only two drawbacks - the elevators. The doors close insanely fast and the fact that the large luggage carts are few and far between with folks waiting all the time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r588581061-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588581061</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Not the best, but it did the job....</t>
+  </si>
+  <si>
+    <t>I was torn about my experience here. While the location was excellent (centrally located, within a mile or less to major sights, and a block away from 16th St. mall with lots of shops and dining) and everyone who I encountered on the staff here was mostly friendly and helpful, there were a few things that weren't so great. The air conditioner was extra noisy and blew out air that smelled like the sewer. When we returned to our room one of the days in the late evening, our room was not cleaned. And when we called housekeeping, they said they wouldn't be able to clean it but put in a "request" for the following day. That was weird. Then when housekeeping at least came with new towels, she said they were "busy." Isn't it the hotel's job to ensure that all rooms are cleaned? Other than that, the room was nice and modern.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>I was torn about my experience here. While the location was excellent (centrally located, within a mile or less to major sights, and a block away from 16th St. mall with lots of shops and dining) and everyone who I encountered on the staff here was mostly friendly and helpful, there were a few things that weren't so great. The air conditioner was extra noisy and blew out air that smelled like the sewer. When we returned to our room one of the days in the late evening, our room was not cleaned. And when we called housekeeping, they said they wouldn't be able to clean it but put in a "request" for the following day. That was weird. Then when housekeeping at least came with new towels, she said they were "busy." Isn't it the hotel's job to ensure that all rooms are cleaned? Other than that, the room was nice and modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r588553736-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588553736</t>
+  </si>
+  <si>
+    <t>Restaurant  only review</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel but I will only review the restaurant The Lockwood.  It is beautifully set up with a full service bar and restaurant.  I had   Pretzel poppers, tomato Gouda cheese soup, and pan seared scallops for dinner along with a glass of wine.  The food and staff here were absolutely amazing!  Even if I never stayed the hotel again I would definitely go back to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel but I will only review the restaurant The Lockwood.  It is beautifully set up with a full service bar and restaurant.  I had   Pretzel poppers, tomato Gouda cheese soup, and pan seared scallops for dinner along with a glass of wine.  The food and staff here were absolutely amazing!  Even if I never stayed the hotel again I would definitely go back to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r587922078-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587922078</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but room 606 is noisy</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night in the hotel for our trip through the rockys. The appearance of the room is very nice. When going to bed we realized a disturbing ongoing noise. I think it's a combination from a noise outside and a ventilation which is located directly beside the door of the room.Perhaps it's the typical problem that people which stay only 1 night, always get the worst rooms available. If anybody gets room 606, ask for a different one.RegardsMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night in the hotel for our trip through the rockys. The appearance of the room is very nice. When going to bed we realized a disturbing ongoing noise. I think it's a combination from a noise outside and a ventilation which is located directly beside the door of the room.Perhaps it's the typical problem that people which stay only 1 night, always get the worst rooms available. If anybody gets room 606, ask for a different one.RegardsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r587253376-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587253376</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel, great location, comfy and clean beds. The hotel is downtown, and is very close to everything. The parking is conveniently located, but it is paid. Overall, spent 1 night here and it was perfect. Would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, great location, comfy and clean beds. The hotel is downtown, and is very close to everything. The parking is conveniently located, but it is paid. Overall, spent 1 night here and it was perfect. Would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r587215325-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587215325</t>
+  </si>
+  <si>
+    <t>First trip to Denver</t>
+  </si>
+  <si>
+    <t>The Crowne Plaza , Denver was adequate for our needs.  We were attending the American Cheese Society annual conference and it was close to the convention center, close to decent restaurants and it was ok for our needs.  There were some nice features like a outdoor pool several stories up. The restaurant served up some tasty food and the staff were tremendous.  The rooms were VERY small. Nicely appointed but small.  We had the same experience when we stayed at the Crowne Plaza in Key West.  The room had about every amenity that you could want but you were literally climbing over one another to get around.  We stayed at the Crowne Plaza in Lake Placid and it was beautiful and the rooms were big so, I don't know if small rooms are the companies DNA or what.  I will say that the restaurants that we have experienced with the Crowne Plazas that we've stayed at were very good.  Anyhow, if you're going to Denver and plan to be out and about most of the time, or you've spent a lot of time on submarines,  the Crowne Plaza may be a good choice.  If you're planning to hang out in the room to any extent (unless you're alone), probably not.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Crowne Plaza , Denver was adequate for our needs.  We were attending the American Cheese Society annual conference and it was close to the convention center, close to decent restaurants and it was ok for our needs.  There were some nice features like a outdoor pool several stories up. The restaurant served up some tasty food and the staff were tremendous.  The rooms were VERY small. Nicely appointed but small.  We had the same experience when we stayed at the Crowne Plaza in Key West.  The room had about every amenity that you could want but you were literally climbing over one another to get around.  We stayed at the Crowne Plaza in Lake Placid and it was beautiful and the rooms were big so, I don't know if small rooms are the companies DNA or what.  I will say that the restaurants that we have experienced with the Crowne Plazas that we've stayed at were very good.  Anyhow, if you're going to Denver and plan to be out and about most of the time, or you've spent a lot of time on submarines,  the Crowne Plaza may be a good choice.  If you're planning to hang out in the room to any extent (unless you're alone), probably not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r586540445-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586540445</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Visit</t>
+  </si>
+  <si>
+    <t>The hand written note from General Manager Sacha Jurva welcoming me to the hotel set the tone for my visit.  From there my visit went very well.  Within walking distance from bars, restaurants, and the convention center I really didn't need a car which came with a charge of $35 daily.  Next time I will catch the shuttle as this will be my preferred stay location when visiting downtown Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hand written note from General Manager Sacha Jurva welcoming me to the hotel set the tone for my visit.  From there my visit went very well.  Within walking distance from bars, restaurants, and the convention center I really didn't need a car which came with a charge of $35 daily.  Next time I will catch the shuttle as this will be my preferred stay location when visiting downtown Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583906855-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583906855</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>This is the second time I have been to this hotel and I would go back in an instant. The first time was for my bridal shower and the room we had accommodated all of my guests and the food was delicious! The room even had an AV set up so that we could play a video of my fiancé, which was a major part of the day! The second time was this past week and it exceeded all of our expectations. The pool on the 6th floor was amazing! I wouldn't imagine many downtown hotels have an outdoor heated pool like this one, and the view...fantastic! The newly renovated rooms were nice. I liked the way the room was set up and the bed was comfy too! Lastly, this was the first hotel I have been at where if you keep the "do not disturb" sign up, the housekeeping staff double checks on if you wanted the room cleaned. We had the sign on our door for all three days we were there and the second day we came back to a note asking if we needed our room cleaned since they noticed the room hadn't been cleaned yet. Highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>This is the second time I have been to this hotel and I would go back in an instant. The first time was for my bridal shower and the room we had accommodated all of my guests and the food was delicious! The room even had an AV set up so that we could play a video of my fiancé, which was a major part of the day! The second time was this past week and it exceeded all of our expectations. The pool on the 6th floor was amazing! I wouldn't imagine many downtown hotels have an outdoor heated pool like this one, and the view...fantastic! The newly renovated rooms were nice. I liked the way the room was set up and the bed was comfy too! Lastly, this was the first hotel I have been at where if you keep the "do not disturb" sign up, the housekeeping staff double checks on if you wanted the room cleaned. We had the sign on our door for all three days we were there and the second day we came back to a note asking if we needed our room cleaned since they noticed the room hadn't been cleaned yet. Highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583867908-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583867908</t>
+  </si>
+  <si>
+    <t>Top Hotel</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed here for the weekend during our short trip to Colorado. Everything about the hotel was great, the location, the customer service at the reception and in the bar area, the room itself. There is also on-site parking which is great. Highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed here for the weekend during our short trip to Colorado. Everything about the hotel was great, the location, the customer service at the reception and in the bar area, the room itself. There is also on-site parking which is great. Highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583670013-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583670013</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Memorial Day Weekend in Denver</t>
+  </si>
+  <si>
+    <t>First time visiting Denver and was pleased with my stay here. Friendly staff - thanks to Jenna and Joe who were quite helpful and accommodating. Arrived before check-in time, and was allowed to do so at the time of arrival, Nice view of the city and conveniently located near 16th street mall which has lots to do and a free bus service to help make getting around a little easier. Take the A train from the airport all the way to Union Station and hop on the bus to Glenarm and its a short walk to the hotel.This property has a pool, which was nicely decorated and popular among guests. There is a designated area on the 4th floor for those looking to enjoy cannabis while visiting. Great lobby bar/lounge/restaurant that is fairly new. Enterprise rent-a-car is just a few blocks away (a car is definitely helpful in Denver).MoreShow less</t>
+  </si>
+  <si>
+    <t>First time visiting Denver and was pleased with my stay here. Friendly staff - thanks to Jenna and Joe who were quite helpful and accommodating. Arrived before check-in time, and was allowed to do so at the time of arrival, Nice view of the city and conveniently located near 16th street mall which has lots to do and a free bus service to help make getting around a little easier. Take the A train from the airport all the way to Union Station and hop on the bus to Glenarm and its a short walk to the hotel.This property has a pool, which was nicely decorated and popular among guests. There is a designated area on the 4th floor for those looking to enjoy cannabis while visiting. Great lobby bar/lounge/restaurant that is fairly new. Enterprise rent-a-car is just a few blocks away (a car is definitely helpful in Denver).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583487792-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583487792</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Great Location, close to everything</t>
+  </si>
+  <si>
+    <t>The location is great. It is 2-3 blocks away from the Convention Center and a block away from the 16th Street mall with many different restaurants, bars, and fast food eateries.Rooms are clean and sleek. The beds are large and comfortable. Water pressure in the shower is decent. The bathroom is brightly lit and spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is great. It is 2-3 blocks away from the Convention Center and a block away from the 16th Street mall with many different restaurants, bars, and fast food eateries.Rooms are clean and sleek. The beds are large and comfortable. Water pressure in the shower is decent. The bathroom is brightly lit and spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583449720-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583449720</t>
+  </si>
+  <si>
+    <t>Excellent location to Convention Center</t>
+  </si>
+  <si>
+    <t>This hotel has undergone some recent renovation and it is lovely.  The bar/welcome area has a nice upscale feel to it with small work stations that come with a television and computer.  The rooms have been redone to be sleek and welcoming.  The beds are placed at an angle with nice wall lighting behind.  There is an ice machine and microwave on each floor which comes in handy.  The main restaurant by the bar - Lockwood -  has outstanding food.  Seriously good.  Erin was our server but she is much more than that.  She has worked in various Crown Plazas around the world and is both knowledgeable and helpful when it comes to describing food choices and wine.  She is outstanding.  I found the staff both welcoming and helpful.  My only suggestion is to have the password for using the computer in the business center available on the check in card so you don't have to request it from the front desk.  Also the breakfast options - off the menu or buffet could be more exciting.  It was confusing to figure out which individual was assigned to an area for service.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has undergone some recent renovation and it is lovely.  The bar/welcome area has a nice upscale feel to it with small work stations that come with a television and computer.  The rooms have been redone to be sleek and welcoming.  The beds are placed at an angle with nice wall lighting behind.  There is an ice machine and microwave on each floor which comes in handy.  The main restaurant by the bar - Lockwood -  has outstanding food.  Seriously good.  Erin was our server but she is much more than that.  She has worked in various Crown Plazas around the world and is both knowledgeable and helpful when it comes to describing food choices and wine.  She is outstanding.  I found the staff both welcoming and helpful.  My only suggestion is to have the password for using the computer in the business center available on the check in card so you don't have to request it from the front desk.  Also the breakfast options - off the menu or buffet could be more exciting.  It was confusing to figure out which individual was assigned to an area for service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583105752-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583105752</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Downtown Denver trip</t>
+  </si>
+  <si>
+    <t>Great location  within walking  distance  to a lot of restaurants and bars. Need to factor in the 35.00 per night parking fee as there is no free parking. Room was nice and bed was comfortable. Check in was ok. The guy working was not friendly. I asked if they had any double rooms available  as we bought our children and was told " if I get asked that  one more time I am going to freak out". Explained that I had called the day before and was told they may not have any and we could get a roll a way bed at no charge ( which I was fine with). It took about 5 hrs and 3 trips down to the desk to get the roll a way bed up to our room. This was the only negative  experiance we had. The gal working at the bar was great and we enjoyed trying some local brews. Pool was wonderful and not cold at all. Lady working when I checked out was nice. Would stay again if needing to be Downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location  within walking  distance  to a lot of restaurants and bars. Need to factor in the 35.00 per night parking fee as there is no free parking. Room was nice and bed was comfortable. Check in was ok. The guy working was not friendly. I asked if they had any double rooms available  as we bought our children and was told " if I get asked that  one more time I am going to freak out". Explained that I had called the day before and was told they may not have any and we could get a roll a way bed at no charge ( which I was fine with). It took about 5 hrs and 3 trips down to the desk to get the roll a way bed up to our room. This was the only negative  experiance we had. The gal working at the bar was great and we enjoyed trying some local brews. Pool was wonderful and not cold at all. Lady working when I checked out was nice. Would stay again if needing to be Downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r581742635-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581742635</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Amazing Team</t>
+  </si>
+  <si>
+    <t>The room was amazing, the employees were so kind and caring! It is located in an amazing part of Denver. I got to walk right out the hotel door and see all the beautiful roads and different things to do! Great place to go!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>The room was amazing, the employees were so kind and caring! It is located in an amazing part of Denver. I got to walk right out the hotel door and see all the beautiful roads and different things to do! Great place to go!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r581606690-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581606690</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>We booked and paid for this hotel for 2 nights 6 months prior. We arrived at 4pm in the afternoon after an 8 hour drive only to be told our room wasn't ready and it would probably be a 1/2 hour wait.  We were tired but we accepted this my husband was given a couple of vouchers to have a drink at the bar while we waited. The place was extremely busy with people checking in. After an hour I went to the front desk to ask if our room was ready and was told oh no it will be at least another 1/2 hour and that there were other people before us. I told my husband this and he went to the desk and asked to speak to a manager who turned out to be the lady I spoke to. She went on to say that they had a huge amount of people checking out and checking in and they were behind. After explaining to her this was not our problem, she eventually found us a room that was ready. She also waived the parking fees and offered us free breakfast both mornings. We were extremely happy with the way Ariel handed this, we realise she was under a lot of pressure and we were grateful for her help. We were told some people did not get into their rooms until 9.30 that night and one person 11pm. The...We booked and paid for this hotel for 2 nights 6 months prior. We arrived at 4pm in the afternoon after an 8 hour drive only to be told our room wasn't ready and it would probably be a 1/2 hour wait.  We were tired but we accepted this my husband was given a couple of vouchers to have a drink at the bar while we waited. The place was extremely busy with people checking in. After an hour I went to the front desk to ask if our room was ready and was told oh no it will be at least another 1/2 hour and that there were other people before us. I told my husband this and he went to the desk and asked to speak to a manager who turned out to be the lady I spoke to. She went on to say that they had a huge amount of people checking out and checking in and they were behind. After explaining to her this was not our problem, she eventually found us a room that was ready. She also waived the parking fees and offered us free breakfast both mornings. We were extremely happy with the way Ariel handed this, we realise she was under a lot of pressure and we were grateful for her help. We were told some people did not get into their rooms until 9.30 that night and one person 11pm. The room was lovely very comfortable and very clean and very quiet rooms. The location was excellent walking distance to the pedestrian mall, shops, pubs and other eateries.The breakfast the following morning was delicious. Hotel staff were excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked and paid for this hotel for 2 nights 6 months prior. We arrived at 4pm in the afternoon after an 8 hour drive only to be told our room wasn't ready and it would probably be a 1/2 hour wait.  We were tired but we accepted this my husband was given a couple of vouchers to have a drink at the bar while we waited. The place was extremely busy with people checking in. After an hour I went to the front desk to ask if our room was ready and was told oh no it will be at least another 1/2 hour and that there were other people before us. I told my husband this and he went to the desk and asked to speak to a manager who turned out to be the lady I spoke to. She went on to say that they had a huge amount of people checking out and checking in and they were behind. After explaining to her this was not our problem, she eventually found us a room that was ready. She also waived the parking fees and offered us free breakfast both mornings. We were extremely happy with the way Ariel handed this, we realise she was under a lot of pressure and we were grateful for her help. We were told some people did not get into their rooms until 9.30 that night and one person 11pm. The...We booked and paid for this hotel for 2 nights 6 months prior. We arrived at 4pm in the afternoon after an 8 hour drive only to be told our room wasn't ready and it would probably be a 1/2 hour wait.  We were tired but we accepted this my husband was given a couple of vouchers to have a drink at the bar while we waited. The place was extremely busy with people checking in. After an hour I went to the front desk to ask if our room was ready and was told oh no it will be at least another 1/2 hour and that there were other people before us. I told my husband this and he went to the desk and asked to speak to a manager who turned out to be the lady I spoke to. She went on to say that they had a huge amount of people checking out and checking in and they were behind. After explaining to her this was not our problem, she eventually found us a room that was ready. She also waived the parking fees and offered us free breakfast both mornings. We were extremely happy with the way Ariel handed this, we realise she was under a lot of pressure and we were grateful for her help. We were told some people did not get into their rooms until 9.30 that night and one person 11pm. The room was lovely very comfortable and very clean and very quiet rooms. The location was excellent walking distance to the pedestrian mall, shops, pubs and other eateries.The breakfast the following morning was delicious. Hotel staff were excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r581406879-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581406879</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Great location for conferences and late night cafes and entertainment</t>
+  </si>
+  <si>
+    <t>A great location 5-10 minutes walk to cafes, shopping malls, conference centres, all is perfect,y placed. The rooms are a good size, the bathroom is huge, the bar and restaraunt is very good, the concierge is excellent and the reception staff are exceptional- a superb hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>A great location 5-10 minutes walk to cafes, shopping malls, conference centres, all is perfect,y placed. The rooms are a good size, the bathroom is huge, the bar and restaraunt is very good, the concierge is excellent and the reception staff are exceptional- a superb hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580882104-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580882104</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Great location in a great city!</t>
+  </si>
+  <si>
+    <t>Recently redesigned and ready for both business and leisure guests!  The hotel is located within walking distance of many restaurants, bars and shopping.  The staff is attentive and extremely friendly!  Wish I could have stayed longer...MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Recently redesigned and ready for both business and leisure guests!  The hotel is located within walking distance of many restaurants, bars and shopping.  The staff is attentive and extremely friendly!  Wish I could have stayed longer...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580706878-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580706878</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>A job well done!</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel! Great Location! Whether it's for business or pleasure, this hotel will not disappoint. Modern designs throughout! Guest rooms are clean and well maintained. Employees are friendly and very accommodating. Clean and modern exercise equipment. The pool (located on the 6th floor) is to die for!!! DEFINITELY THE PLACE to stay when you're in Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel! Great Location! Whether it's for business or pleasure, this hotel will not disappoint. Modern designs throughout! Guest rooms are clean and well maintained. Employees are friendly and very accommodating. Clean and modern exercise equipment. The pool (located on the 6th floor) is to die for!!! DEFINITELY THE PLACE to stay when you're in Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580515500-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580515500</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Perfect location!</t>
+  </si>
+  <si>
+    <t>I arrived a few days early for a business trip so I could do a little sightseeing and this hotel was in the perfect location! Walking distance to tons of restaurants and shops. Hotel was recently renovated and looks great, friendly staff that were very helpful. I'd definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived a few days early for a business trip so I could do a little sightseeing and this hotel was in the perfect location! Walking distance to tons of restaurants and shops. Hotel was recently renovated and looks great, friendly staff that were very helpful. I'd definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580221264-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580221264</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Extremely nice stay at the hotel!</t>
+  </si>
+  <si>
+    <t>Was in town for business, and stayed at the hotel because of  location.  Was very happy with everything at the hotel! The hotel was clean, well maintained, and everything worked like it should.  The staff was pleasant, and smiled every time I walked past them. I even threw them a curve ball with the billing, and they took care of it quickly and accurately.  Will be back at this hotel when work takes me there next.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was in town for business, and stayed at the hotel because of  location.  Was very happy with everything at the hotel! The hotel was clean, well maintained, and everything worked like it should.  The staff was pleasant, and smiled every time I walked past them. I even threw them a curve ball with the billing, and they took care of it quickly and accurately.  Will be back at this hotel when work takes me there next.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r579931284-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>579931284</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Great Escape</t>
+  </si>
+  <si>
+    <t>I attended a conference in Denver recently and stayed at the Crowne Plaza in downtown Denver. Wow...The rooms were amazing. Clean, well laid out. BIG television. Service—impeccable!!!  Over 300 people in attendance and EVERY staff member I came in contact with remembered me by name. The food was excellent and not lacking in choices. I highly recommend the mini Ahi tacos. I had to fly out early and Blayne at the desk took care of my billing while big Joe hailed a cab for me. Outstanding team work!!!This is a “must stay” for any reason while in Denver!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>I attended a conference in Denver recently and stayed at the Crowne Plaza in downtown Denver. Wow...The rooms were amazing. Clean, well laid out. BIG television. Service—impeccable!!!  Over 300 people in attendance and EVERY staff member I came in contact with remembered me by name. The food was excellent and not lacking in choices. I highly recommend the mini Ahi tacos. I had to fly out early and Blayne at the desk took care of my billing while big Joe hailed a cab for me. Outstanding team work!!!This is a “must stay” for any reason while in Denver!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r579775767-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>579775767</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Positives</t>
+  </si>
+  <si>
+    <t>For the positives in this hotel, the beds were very comfortable and location was fantastic.Very busy the night we arrived, so was loud in the lobby, bar area, we could hardly hear the front desk for our check in.Our server for breakfast one morning was so friendly in the Lockwood, and buffet was great, but expensive. Our rooms we a little overpriced also, especially for a Wednesday and Thursday night.MoreShow less</t>
+  </si>
+  <si>
+    <t>For the positives in this hotel, the beds were very comfortable and location was fantastic.Very busy the night we arrived, so was loud in the lobby, bar area, we could hardly hear the front desk for our check in.Our server for breakfast one morning was so friendly in the Lockwood, and buffet was great, but expensive. Our rooms we a little overpriced also, especially for a Wednesday and Thursday night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r578918573-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578918573</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>perfect loaction</t>
+  </si>
+  <si>
+    <t>friendly staff, clean room, great location to walk in city. The elevators can get a bit wonky as they are small and sometimes seem to stop on every floor. The bed was comfortable and although it is an older hotel it was great for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>friendly staff, clean room, great location to walk in city. The elevators can get a bit wonky as they are small and sometimes seem to stop on every floor. The bed was comfortable and although it is an older hotel it was great for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r578754176-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578754176</t>
+  </si>
+  <si>
+    <t>Newly renovated; Excellent Staff</t>
+  </si>
+  <si>
+    <t>This property recently renovated.  Perfect for the business traveler with many plug in"s for devices and super fast and reliable wi-fi.  The food is very good and room service is fast and reliable.  Close proximity to 16th Street Mall and the Convention Center.  The staff is very helpful and friendly and go out of their way to make things right if there is a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>This property recently renovated.  Perfect for the business traveler with many plug in"s for devices and super fast and reliable wi-fi.  The food is very good and room service is fast and reliable.  Close proximity to 16th Street Mall and the Convention Center.  The staff is very helpful and friendly and go out of their way to make things right if there is a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r577722554-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577722554</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel prefect location for downtown</t>
+  </si>
+  <si>
+    <t>I really like this hotel and the location is awesome!  walking distant to great restaurants and shopping. Rooms are all remodeled, the staff is there to help make the stay most comfortable.  As a business traveler I highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>I really like this hotel and the location is awesome!  walking distant to great restaurants and shopping. Rooms are all remodeled, the staff is there to help make the stay most comfortable.  As a business traveler I highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r577682752-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577682752</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff, and great pool. Steps away from everything downtown. Loved it! Wish I could've used the roof top pool, but it was closed in December. The hotel was beautiful a bit pricey, but worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff, and great pool. Steps away from everything downtown. Loved it! Wish I could've used the roof top pool, but it was closed in December. The hotel was beautiful a bit pricey, but worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r577533344-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577533344</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Phi Sigma Pi Spring Formal</t>
+  </si>
+  <si>
+    <t>I coordinated a large scale event for my organization with this hotel, and they provided an overall great experience. They were absolutely helpful in every step of the process, providing me with all the information I needed. At the time of the event, they were open to accommodate for last minute changes and provided an amazing meal. Also, all the rooms (in our huge block) were ready and prepared for everyone the second they got there. I would definitely recommend this hotel for large-scale events!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I coordinated a large scale event for my organization with this hotel, and they provided an overall great experience. They were absolutely helpful in every step of the process, providing me with all the information I needed. At the time of the event, they were open to accommodate for last minute changes and provided an amazing meal. Also, all the rooms (in our huge block) were ready and prepared for everyone the second they got there. I would definitely recommend this hotel for large-scale events!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r577235739-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577235739</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>An amazing property walking distance to the convention center. Was happily surprised with how exceptional The Lockwood Kitchen &amp; Bar was. The bar tenders are very attentive and always remember what I like to drink. They have recently went under a huge renovation and it shows!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>An amazing property walking distance to the convention center. Was happily surprised with how exceptional The Lockwood Kitchen &amp; Bar was. The bar tenders are very attentive and always remember what I like to drink. They have recently went under a huge renovation and it shows!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r576937568-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576937568</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>awesome stay</t>
+  </si>
+  <si>
+    <t>The hotel had great customer service. Everyone was helpful and friendly. It has a great location, centrally located. Food was great. The wait staff was vey professional. Parking was easy. Our room had  great view of the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel had great customer service. Everyone was helpful and friendly. It has a great location, centrally located. Food was great. The wait staff was vey professional. Parking was easy. Our room had  great view of the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r576045160-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576045160</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This hotel is in a very convenient location. You can walk to most attractions.  I even walked to Coors Baseball stadium!  Hotel is clean, rooms are spacious.  Mattress was comfortable. I'd stay again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in a very convenient location. You can walk to most attractions.  I even walked to Coors Baseball stadium!  Hotel is clean, rooms are spacious.  Mattress was comfortable. I'd stay again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r575748754-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575748754</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location, right by the convention center and lots of shopping. The value of this hotel compared to the other downtown hotels is outstanding. Room was good size, bathroom a bit small but still big enough for getting ready. Beds were very comfortable, water pressure is okay and the TV was a good size for the room. One odd thing was that there was no dresser or place to put clothes away so if you stay for more than a few days you have to leave all your clothes in your suitcase. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location, right by the convention center and lots of shopping. The value of this hotel compared to the other downtown hotels is outstanding. Room was good size, bathroom a bit small but still big enough for getting ready. Beds were very comfortable, water pressure is okay and the TV was a good size for the room. One odd thing was that there was no dresser or place to put clothes away so if you stay for more than a few days you have to leave all your clothes in your suitcase. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r574246566-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574246566</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Great hotel for business and pleasure</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located near the convention centre and 16th st. I accompanied my wife on her business trip and I throughly enjoyed the experience. We were upgraded to a suite which was most appreciated on our two week stay. The hotel is well run and the staff clearly well trained. They were all friendly, helpful and courteous from the housekeeping staff to the front office. In particular Chris in the breakfast room, Kim on reception and Chuck in the bar deserve a special mention. Nothing was a problem for them and they all had that “ can do” attitude that is often lacking in the service industry. Having stayed for two weeks, we used most of the available facilities and found them to be top quality.  The sight of the Rockies  in the morning will stay with me for a long time.  Well done guys. Will stay again when we get to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kristopher P, Marketing Admin  at Crowne Plaza Denver, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located near the convention centre and 16th st. I accompanied my wife on her business trip and I throughly enjoyed the experience. We were upgraded to a suite which was most appreciated on our two week stay. The hotel is well run and the staff clearly well trained. They were all friendly, helpful and courteous from the housekeeping staff to the front office. In particular Chris in the breakfast room, Kim on reception and Chuck in the bar deserve a special mention. Nothing was a problem for them and they all had that “ can do” attitude that is often lacking in the service industry. Having stayed for two weeks, we used most of the available facilities and found them to be top quality.  The sight of the Rockies  in the morning will stay with me for a long time.  Well done guys. Will stay again when we get to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r572996757-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572996757</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>I want to personally thank Rick, Courtney, Christian and Chuck. There were others that I can’t remember the correct names but I’ll be back because of your staff. Hotel was clean, accommodating, and close to everything. Thank you for taking care of me! Oh...and awesome rooftop pool!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I want to personally thank Rick, Courtney, Christian and Chuck. There were others that I can’t remember the correct names but I’ll be back because of your staff. Hotel was clean, accommodating, and close to everything. Thank you for taking care of me! Oh...and awesome rooftop pool!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r572269942-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572269942</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Time to move on</t>
+  </si>
+  <si>
+    <t>I spent a weekend last year at this hotel for the opening day of the Rockies and it was under construction - they didn't mention this during booking. The hotel is finished and very nice. I find the bathrooms too small and the sink too shallow. The rate was nice but I was disappointed when I went down stairs to find a cup of coffee, I was charged for the coffee at the bar.Service was good, staff friendly, nice renovations - just too many choices to stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather D, Director of Sales at Crowne Plaza Denver, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>I spent a weekend last year at this hotel for the opening day of the Rockies and it was under construction - they didn't mention this during booking. The hotel is finished and very nice. I find the bathrooms too small and the sink too shallow. The rate was nice but I was disappointed when I went down stairs to find a cup of coffee, I was charged for the coffee at the bar.Service was good, staff friendly, nice renovations - just too many choices to stay at this hotel.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1445,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1477,2874 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>220</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>148</v>
+      </c>
+      <c r="X18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>148</v>
+      </c>
+      <c r="X19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>167</v>
+      </c>
+      <c r="X20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>167</v>
+      </c>
+      <c r="X21" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>148</v>
+      </c>
+      <c r="X23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>220</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>148</v>
+      </c>
+      <c r="X24" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>220</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>148</v>
+      </c>
+      <c r="X25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>220</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>203</v>
+      </c>
+      <c r="X26" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>220</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>203</v>
+      </c>
+      <c r="X27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>222</v>
+      </c>
+      <c r="X29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>220</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>222</v>
+      </c>
+      <c r="X30" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>222</v>
+      </c>
+      <c r="X31" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>220</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>222</v>
+      </c>
+      <c r="X32" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>248</v>
+      </c>
+      <c r="X33" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>220</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>248</v>
+      </c>
+      <c r="X34" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>220</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>248</v>
+      </c>
+      <c r="X35" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>220</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>267</v>
+      </c>
+      <c r="O36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>248</v>
+      </c>
+      <c r="X36" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>220</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>274</v>
+      </c>
+      <c r="X37" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>220</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>274</v>
+      </c>
+      <c r="X38" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>220</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>274</v>
+      </c>
+      <c r="X39" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" t="s">
+        <v>294</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>267</v>
+      </c>
+      <c r="O40" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>295</v>
+      </c>
+      <c r="X40" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>220</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>267</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>220</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>305</v>
+      </c>
+      <c r="J42" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" t="s">
+        <v>307</v>
+      </c>
+      <c r="L42" t="s">
+        <v>308</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>295</v>
+      </c>
+      <c r="X42" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>311</v>
+      </c>
+      <c r="J43" t="s">
+        <v>312</v>
+      </c>
+      <c r="K43" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>288</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>295</v>
+      </c>
+      <c r="X43" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>316</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
+        <v>318</v>
+      </c>
+      <c r="K44" t="s">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s">
+        <v>320</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>288</v>
+      </c>
+      <c r="O44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>321</v>
+      </c>
+      <c r="X44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="s">
+        <v>326</v>
+      </c>
+      <c r="K45" t="s">
+        <v>327</v>
+      </c>
+      <c r="L45" t="s">
+        <v>328</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>288</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>321</v>
+      </c>
+      <c r="X45" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>331</v>
+      </c>
+      <c r="J46" t="s">
+        <v>332</v>
+      </c>
+      <c r="K46" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>288</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>335</v>
+      </c>
+      <c r="X46" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_49.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_49.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,321 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r612097265-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>119941</t>
+  </si>
+  <si>
+    <t>612097265</t>
+  </si>
+  <si>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>Centrally located...</t>
+  </si>
+  <si>
+    <t>Stayed two nights at the Crowne Plaza in Denver.  It is centrally located within walking distance of the16th Street Mall.  There are a  lot of restaurants and shops nearby.  
+When we drove into the hotel entrance area we were surprised that there was no bell service up front.  If there is a bell desk, we were never offered bell service up to our rooms.  Even when we checked in, not once did they ask if we needed help with our bags.  
+We reserved a Double Queen room but were able to get upgraded to a King Premium at check-in.  The person at the desk was friendly and polite.  She told us that 4 adults could fit in the King Premium as there was a separate sitting area that had a sofa bed and we could request a rollaway bed as well.  She told us that she would have the rollaway bed sent up right away. (Which did not happen, after 3 hours, we finally called to remind them about the rollaway and whoever answered the phone at the front desk, asked me what time did I reserve it?  (Really???)).
+The room was very clean and looked like it was recently renovated, but the air conditioners in the room are the old motel style ones, which can be quite loud.  The sitting area has a sofa bed and a large TV with a mini fridge and Keurig Coffee maker and half...Stayed two nights at the Crowne Plaza in Denver.  It is centrally located within walking distance of the16th Street Mall.  There are a  lot of restaurants and shops nearby.  When we drove into the hotel entrance area we were surprised that there was no bell service up front.  If there is a bell desk, we were never offered bell service up to our rooms.  Even when we checked in, not once did they ask if we needed help with our bags.  We reserved a Double Queen room but were able to get upgraded to a King Premium at check-in.  The person at the desk was friendly and polite.  She told us that 4 adults could fit in the King Premium as there was a separate sitting area that had a sofa bed and we could request a rollaway bed as well.  She told us that she would have the rollaway bed sent up right away. (Which did not happen, after 3 hours, we finally called to remind them about the rollaway and whoever answered the phone at the front desk, asked me what time did I reserve it?  (Really???)).The room was very clean and looked like it was recently renovated, but the air conditioners in the room are the old motel style ones, which can be quite loud.  The sitting area has a sofa bed and a large TV with a mini fridge and Keurig Coffee maker and half a bath.  The bedroom is very spacious with a King bed, large TV, desk with chair and arm chair.  The full bathroom is clean and spacious with a nice vanity area and closet.However, it was a very tight squeeze with the sofa bed and rollaway.  This room is better suited for 3 adults or a family with two young children (not teenagers or older).We were a bit disappointed that we spent most of the day (6 hours) sightseeing and when we got back to the hotel, our room was still not cleaned.  We had to find something to do downstairs when housekeeping finally got to our room.  We had no issue with the parking as it was relatively easy to get in/out of the parking garage.  There were ample spaces available and the cost per night is not unusually high given you’re in a big city like Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stayed two nights at the Crowne Plaza in Denver.  It is centrally located within walking distance of the16th Street Mall.  There are a  lot of restaurants and shops nearby.  
+When we drove into the hotel entrance area we were surprised that there was no bell service up front.  If there is a bell desk, we were never offered bell service up to our rooms.  Even when we checked in, not once did they ask if we needed help with our bags.  
+We reserved a Double Queen room but were able to get upgraded to a King Premium at check-in.  The person at the desk was friendly and polite.  She told us that 4 adults could fit in the King Premium as there was a separate sitting area that had a sofa bed and we could request a rollaway bed as well.  She told us that she would have the rollaway bed sent up right away. (Which did not happen, after 3 hours, we finally called to remind them about the rollaway and whoever answered the phone at the front desk, asked me what time did I reserve it?  (Really???)).
+The room was very clean and looked like it was recently renovated, but the air conditioners in the room are the old motel style ones, which can be quite loud.  The sitting area has a sofa bed and a large TV with a mini fridge and Keurig Coffee maker and half...Stayed two nights at the Crowne Plaza in Denver.  It is centrally located within walking distance of the16th Street Mall.  There are a  lot of restaurants and shops nearby.  When we drove into the hotel entrance area we were surprised that there was no bell service up front.  If there is a bell desk, we were never offered bell service up to our rooms.  Even when we checked in, not once did they ask if we needed help with our bags.  We reserved a Double Queen room but were able to get upgraded to a King Premium at check-in.  The person at the desk was friendly and polite.  She told us that 4 adults could fit in the King Premium as there was a separate sitting area that had a sofa bed and we could request a rollaway bed as well.  She told us that she would have the rollaway bed sent up right away. (Which did not happen, after 3 hours, we finally called to remind them about the rollaway and whoever answered the phone at the front desk, asked me what time did I reserve it?  (Really???)).The room was very clean and looked like it was recently renovated, but the air conditioners in the room are the old motel style ones, which can be quite loud.  The sitting area has a sofa bed and a large TV with a mini fridge and Keurig Coffee maker and half a bath.  The bedroom is very spacious with a King bed, large TV, desk with chair and arm chair.  The full bathroom is clean and spacious with a nice vanity area and closet.However, it was a very tight squeeze with the sofa bed and rollaway.  This room is better suited for 3 adults or a family with two young children (not teenagers or older).We were a bit disappointed that we spent most of the day (6 hours) sightseeing and when we got back to the hotel, our room was still not cleaned.  We had to find something to do downstairs when housekeeping finally got to our room.  We had no issue with the parking as it was relatively easy to get in/out of the parking garage.  There were ample spaces available and the cost per night is not unusually high given you’re in a big city like Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r581078216-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581078216</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Perfect stay</t>
+  </si>
+  <si>
+    <t>I had a fantastic stay for a week at this property.  Everyone was extremely friendly from the front desk to housekeeping to room service.  Every employee would stop, smile, welcome and assist me.  The bar was lively and fun.  My room was very clean and spacious.The location is great within walking distance to the convention center and the outside mall area with lots of options for restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>I had a fantastic stay for a week at this property.  Everyone was extremely friendly from the front desk to housekeeping to room service.  Every employee would stop, smile, welcome and assist me.  The bar was lively and fun.  My room was very clean and spacious.The location is great within walking distance to the convention center and the outside mall area with lots of options for restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r611681018-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>611681018</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel and pool, Friendly Staff</t>
+  </si>
+  <si>
+    <t>Great location and a very nice staff made this stay great. We also used the pool most days and would definetley stay here again. Very close to the 16th street drag and pavilion malls. Lobby bar was also a frequent destination for us and had great service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r611617370-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>611617370</t>
+  </si>
+  <si>
+    <t>Good location and reasonable big hotel price.</t>
+  </si>
+  <si>
+    <t>Booked ahead and got a good price on the room. My complaint is the $35 parking fee per night and the buffet at $20 for breakfast. Rooms are nicely appointed and clean. Location is a block off 16th Street ped mall where you can catch a shuttle bus that goes up and down a large shopping/dining/bar area. Overall good experience. Location was good and the pricing compared to other big hotels, on a baseball weekend, was great. Parking was my gripe.  I recommend parking across the street or nearby.  There was only one bellhop (that I ever saw), so pulling in and then to half to self-park with no bellhop does not make it worth the $35.  The food choices in the hotel are fine, but $20 is a bit high for breakfast, do a tripadvisor and see what else is available.  This is not a gripe against the hotel, but the ped mall had quite a few homeless around.  That might make someone uncomfortable, not me..but i wanted to mention.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Booked ahead and got a good price on the room. My complaint is the $35 parking fee per night and the buffet at $20 for breakfast. Rooms are nicely appointed and clean. Location is a block off 16th Street ped mall where you can catch a shuttle bus that goes up and down a large shopping/dining/bar area. Overall good experience. Location was good and the pricing compared to other big hotels, on a baseball weekend, was great. Parking was my gripe.  I recommend parking across the street or nearby.  There was only one bellhop (that I ever saw), so pulling in and then to half to self-park with no bellhop does not make it worth the $35.  The food choices in the hotel are fine, but $20 is a bit high for breakfast, do a tripadvisor and see what else is available.  This is not a gripe against the hotel, but the ped mall had quite a few homeless around.  That might make someone uncomfortable, not me..but i wanted to mention.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r609711213-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>609711213</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>City center location</t>
+  </si>
+  <si>
+    <t>A friend and I stayed here for 3 nights in August. The location is very city center in the downtown area. The hotel is about 3 blocks away from 16th St, which is the main drag of touristy area. The hotel itself was very clean and comfortable, with a spacious room. We had a room with a king bed. The bathroom is small with poor configuration is have items and hang anything, including towels. We only used the pool for about five minutes, as right after we got there a staff person said they had to close the pool area to adjust chemicals. We did not try to go again any other times. We did not use the attached bar/restaurant, gym, or other amenities. We were out and about a lot, so the hotel was a great place to return to at the end of the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>A friend and I stayed here for 3 nights in August. The location is very city center in the downtown area. The hotel is about 3 blocks away from 16th St, which is the main drag of touristy area. The hotel itself was very clean and comfortable, with a spacious room. We had a room with a king bed. The bathroom is small with poor configuration is have items and hang anything, including towels. We only used the pool for about five minutes, as right after we got there a staff person said they had to close the pool area to adjust chemicals. We did not try to go again any other times. We did not use the attached bar/restaurant, gym, or other amenities. We were out and about a lot, so the hotel was a great place to return to at the end of the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r609701065-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>609701065</t>
+  </si>
+  <si>
+    <t>Its a great Hotel</t>
+  </si>
+  <si>
+    <t>If you need to know the downtown of Denver? This hotel is your option, because is near to the Convention Center, the financial district, next to the mall, and have all the commodities, it´s just that you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, Manager at Crowne Plaza Denver, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>If you need to know the downtown of Denver? This hotel is your option, because is near to the Convention Center, the financial district, next to the mall, and have all the commodities, it´s just that you need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r608675825-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>608675825</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Great place ! Great location in downtown!</t>
+  </si>
+  <si>
+    <t>A super nice kept hotel centrally located in downtown Denver.Just park the car and walk to shopping and restaurants right from the hotel . Quiet and clean .Close to expressways.Prices are very reasonable.Parking for 35.00 is a little higher then I’d like to pay.A nice place I would come back again . MoreShow less</t>
+  </si>
+  <si>
+    <t>A super nice kept hotel centrally located in downtown Denver.Just park the car and walk to shopping and restaurants right from the hotel . Quiet and clean .Close to expressways.Prices are very reasonable.Parking for 35.00 is a little higher then I’d like to pay.A nice place I would come back again . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r607592097-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>607592097</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Parking is way overpriced, beds are hard, front desk is rude</t>
+  </si>
+  <si>
+    <t>When we booked our trip we had no way of knowing that the parking garage was $35 overnight and $20 a day for guests to park their cars in the Crown Plaza in Denver, CO. In order to afford our stay here (which was already paid for 4 nights) we have to find a cheaper parking area away from the hotel we are in. Furthermore, the king size bed in our room is rock hard. When we called the front desk when we first arrived at the hotel, they said they would soften it. We left for dinner and returned and nothing had been done to fix this. We called again and was rudely told be the night staff manager “there is nothing that we can do to soften your bed. All the beds in the hotel are hard because most people have back issues. We can not accommodate the needs of one individual.” They did send a maintenance staff who placed two of their thin comforters on the bed to try to “soften” the bed. It wasn’t much help and when we called back the front desk they informed us there was nothing they would do to help us despite explaining that we are from out of town, had been up traveling all night, and couldn’t sleep in the bed because it is very uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we booked our trip we had no way of knowing that the parking garage was $35 overnight and $20 a day for guests to park their cars in the Crown Plaza in Denver, CO. In order to afford our stay here (which was already paid for 4 nights) we have to find a cheaper parking area away from the hotel we are in. Furthermore, the king size bed in our room is rock hard. When we called the front desk when we first arrived at the hotel, they said they would soften it. We left for dinner and returned and nothing had been done to fix this. We called again and was rudely told be the night staff manager “there is nothing that we can do to soften your bed. All the beds in the hotel are hard because most people have back issues. We can not accommodate the needs of one individual.” They did send a maintenance staff who placed two of their thin comforters on the bed to try to “soften” the bed. It wasn’t much help and when we called back the front desk they informed us there was nothing they would do to help us despite explaining that we are from out of town, had been up traveling all night, and couldn’t sleep in the bed because it is very uncomfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r607505527-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>607505527</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>The Colorado experience</t>
+  </si>
+  <si>
+    <t>This is one of the nicest hotels , I ve have stayed.  Downtown Denver and offered a low price on parking , whereas you could park and shop while your room is getting readied. Or the day after, stay parked and shop the morning.  Also loved the secured floor aspect. However, the check in procedure was effortless and oh so friendly.  The clerk, Jenna, did a fantastic job , working so cool under the morning rush.  Jenna really made a difference in the hotel first impression, so friendly , patient and helpful.  It really appears that she enjoyed her job.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r606168491-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>606168491</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had tickets to the Rockies and decided to stay here. The room was comfortable and clean. We appreciated the bottled water in our room. Our room was very quiet. We upgraded our stay to include breakfast.  It was a buffet but it was delicious and very relaxing in the restaurant.  We didn't mind paying for parking especially since they let us park longer for the game. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r605922440-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>605922440</t>
+  </si>
+  <si>
+    <t>The Pool</t>
+  </si>
+  <si>
+    <t>The hotel and staff were great, minus the pool! We chose this hotel for the pool that it offered; however, we were so disappointed. Someone had had a party the night prior to when we went out to enjoy the pool so we were unable to get in for several hours. The pool appeared to be foggy and we we couldn’t see the bottom of the pool. We were told they would put chlorine in the pool and we would just have to wait until the levels are okay. After several hours, we called down to the front desk and were told the pool was safe to swim in. There were children in the pool and myself and my boyfriend got in for a bit to cool off too. About 45 minutes after being told the water was safe to swim in, a man came out and scooped up the water for what appeared to be to check the levels of the water. After being asked if it was still safe, the man stated that according to the levels, no it was not, and he walked away. The stay would have been perfect had it not been for the cleanliness of the pool. I just felt a little deceived and like some of the staff from the hotel weren’t concerned for the safety of myself and the rest of the visiting families and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel and staff were great, minus the pool! We chose this hotel for the pool that it offered; however, we were so disappointed. Someone had had a party the night prior to when we went out to enjoy the pool so we were unable to get in for several hours. The pool appeared to be foggy and we we couldn’t see the bottom of the pool. We were told they would put chlorine in the pool and we would just have to wait until the levels are okay. After several hours, we called down to the front desk and were told the pool was safe to swim in. There were children in the pool and myself and my boyfriend got in for a bit to cool off too. About 45 minutes after being told the water was safe to swim in, a man came out and scooped up the water for what appeared to be to check the levels of the water. After being asked if it was still safe, the man stated that according to the levels, no it was not, and he walked away. The stay would have been perfect had it not been for the cleanliness of the pool. I just felt a little deceived and like some of the staff from the hotel weren’t concerned for the safety of myself and the rest of the visiting families and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r605368833-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>605368833</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Didn't Stay but Attended Conference Here</t>
+  </si>
+  <si>
+    <t>Total disclosure, I did not stay or see any of the rooms at this property, but did spend lots of time in the meeting spaces and public spaces. The lobby is thoughtfully laid out, even if it is a bit cramped and all meeting rooms are on the same level. There is a set of meeting rooms that you have to go outside and cross the parking garage ramp to get too that were odd, but were fine. Catering was great and staff attentive and the studio meeting room is a great alternative to a regular meeting room. Easy access to downtown and the mall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r603695598-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>603695598</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel with Great Bar and breakfast buffet</t>
+  </si>
+  <si>
+    <t>This was a nice Hotel which was outside of our meeting choices but perfect for my needs and at a discout tied to Orbitz airfare.  A short walking distance to the Convention center.  Bartenters were very entertaining and the front desk staff were great.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice Hotel which was outside of our meeting choices but perfect for my needs and at a discout tied to Orbitz airfare.  A short walking distance to the Convention center.  Bartenters were very entertaining and the front desk staff were great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r602499769-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>602499769</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, quiet, remodeled and great location </t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with this hotel. I was in for a convention at a nearby hotel and this Crowne Plaza was an excellent value for the price and location. The room was extremely clean, newly remodeled and the AC worked great.  It was also very quiet. I didn’t hear other guests in the hall or sirens outside. Great location and helpful staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with this hotel. I was in for a convention at a nearby hotel and this Crowne Plaza was an excellent value for the price and location. The room was extremely clean, newly remodeled and the AC worked great.  It was also very quiet. I didn’t hear other guests in the hall or sirens outside. Great location and helpful staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r601594221-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>601594221</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Fair play</t>
+  </si>
+  <si>
+    <t>We had a problem with of our booking, of my making. Leah and the hotel manager worked to get it all resolved. Much appreciated. One more reason to be a loyal Crowne Plaza customer. Good location with shuttle to airport. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We had a problem with of our booking, of my making. Leah and the hotel manager worked to get it all resolved. Much appreciated. One more reason to be a loyal Crowne Plaza customer. Good location with shuttle to airport. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r600801602-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>119941</t>
-  </si>
-  <si>
     <t>600801602</t>
   </si>
   <si>
@@ -174,12 +477,6 @@
     <t>We checked in very early, as we had an early flight. I was pleased to hear that the room was not only ready early, but also that we were upgraded to the top floor! Jenna was the person who checked us in, and she was, hands down, the best person I’ve ever encountered in the Hospitality industry! I work in lodging, and Crowne Plaza is very lucky to have her on the team! She was so friendly, and went above and beyond to make sure we have a great stay.She also found out that is was a birthday trip, and she gave us tickets to a show at Red Rock Ampitheater that another guest was unable to use. We are SO excited to be able to see a show at the best venue in the States! Also, our room is beautiful, and the view is INCREDIBLE! Jenna, thank you so much for making our stay special! We’ve only been in Denver for a few hours, but we’re falling in love with it! Management, if you’re reading this, she deserves a promotion!MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We checked in very early, as we had an early flight. I was pleased to hear that the room was not only ready early, but also that we were upgraded to the top floor! Jenna was the person who checked us in, and she was, hands down, the best person I’ve ever encountered in the Hospitality industry! I work in lodging, and Crowne Plaza is very lucky to have her on the team! She was so friendly, and went above and beyond to make sure we have a great stay.She also found out that is was a birthday trip, and she gave us tickets to a show at Red Rock Ampitheater that another guest was unable to use. We are SO excited to be able to see a show at the best venue in the States! Also, our room is beautiful, and the view is INCREDIBLE! Jenna, thank you so much for making our stay special! We’ve only been in Denver for a few hours, but we’re falling in love with it! Management, if you’re reading this, she deserves a promotion!More</t>
   </si>
   <si>
@@ -195,12 +492,6 @@
     <t>My family and I came for the Kentucky derby party in May and had an awesome time! The hotel is totally upgraded and the rooms are spacious, clean and relaxing. We had drinks at the Lockwood bar the first night and it was so much fun. The bartender recommended cocktails for us and even made my sister a random drink based on her preferences.the location is perfect, you’re one block over from16th street mall to jump on the (free) mall ride, bonus!! And get to the Kentucky derby party. They also have a 24 hour market with snacks and drinks, which we took advantage off every night. Its upgraded with a scanner, so you can just buy it real quick without getting in line at the front desk. It’s very easy to stay at this hotel because of all the upgrades and technology focused amenities and you’re close to everything in Denver!MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>My family and I came for the Kentucky derby party in May and had an awesome time! The hotel is totally upgraded and the rooms are spacious, clean and relaxing. We had drinks at the Lockwood bar the first night and it was so much fun. The bartender recommended cocktails for us and even made my sister a random drink based on her preferences.the location is perfect, you’re one block over from16th street mall to jump on the (free) mall ride, bonus!! And get to the Kentucky derby party. They also have a 24 hour market with snacks and drinks, which we took advantage off every night. Its upgraded with a scanner, so you can just buy it real quick without getting in line at the front desk. It’s very easy to stay at this hotel because of all the upgrades and technology focused amenities and you’re close to everything in Denver!More</t>
   </si>
   <si>
@@ -210,16 +501,76 @@
     <t>598978883</t>
   </si>
   <si>
-    <t>July 23, 2018</t>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful Stay in Denver </t>
+  </si>
+  <si>
+    <t>The Crown Plaza is centrally located in the heart of Downtown Denver just steps away from the 16th Street Mall. The mall is an eclectic collection of shops and eateries,  some familiar but some "local" and offers a free bus service that runs the whole length of the avenue.  Check in was a breeze and the concierge and registration staff were extremely helpful in answering our questions and booking a tour.  All in all a very welcoming hotel which,  when in Denver,  we will most certainly stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The Crown Plaza is centrally located in the heart of Downtown Denver just steps away from the 16th Street Mall. The mall is an eclectic collection of shops and eateries,  some familiar but some "local" and offers a free bus service that runs the whole length of the avenue.  Check in was a breeze and the concierge and registration staff were extremely helpful in answering our questions and booking a tour.  All in all a very welcoming hotel which,  when in Denver,  we will most certainly stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r598871978-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598871978</t>
+  </si>
+  <si>
+    <t>Good location, awesome pool!</t>
+  </si>
+  <si>
+    <t>This location is perfect if you prefer walking to restaurants/shopping/etc. We were able to walk to Larimer Square which is a wonderful plaza for shopping and restaurants. Also, the pool with the city view is amazing! Lots of pool furniture, music, and we did not do this, but could order select food or drink from the pool menu to the pool. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This location is perfect if you prefer walking to restaurants/shopping/etc. We were able to walk to Larimer Square which is a wonderful plaza for shopping and restaurants. Also, the pool with the city view is amazing! Lots of pool furniture, music, and we did not do this, but could order select food or drink from the pool menu to the pool. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r598593098-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598593098</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Modern and Bright Crowne Plaza very close to 16th Street Mall</t>
+  </si>
+  <si>
+    <t>The best part of this hotel is the location. It is a couple of blocks from 16th Street Mall and close to all the attractions and restaurants in Denver. I really liked this hotel during my first visit to Denver years ago and have stayed several times since then. The rooms are modern, quiet,  clean and bright with pretty views of the mountains.The bathrooms are relatively small. The service is professional. The breakfast spread is excellent. The parking fee is mentioned by several reviewers and this is getting expensive in any downtown hotel and is even higher in other cities ( e.g. San Francisco, LA, Seattle, NYC.. ). I would suggest taking Uber which is an inexpensive way to move around in Denver. I would definitely recommend this hotel if you are looking for a clean, comfortable and modern hotel with a great location!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The best part of this hotel is the location. It is a couple of blocks from 16th Street Mall and close to all the attractions and restaurants in Denver. I really liked this hotel during my first visit to Denver years ago and have stayed several times since then. The rooms are modern, quiet,  clean and bright with pretty views of the mountains.The bathrooms are relatively small. The service is professional. The breakfast spread is excellent. The parking fee is mentioned by several reviewers and this is getting expensive in any downtown hotel and is even higher in other cities ( e.g. San Francisco, LA, Seattle, NYC.. ). I would suggest taking Uber which is an inexpensive way to move around in Denver. I would definitely recommend this hotel if you are looking for a clean, comfortable and modern hotel with a great location!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r598154468-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598154468</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>my partner and I stayed for 1 night while on a road trip. hotel in great location. staff very friendly and check in was quick . great facilities in room, i.e iron/board, tea nad coffee machine. comfy clean beds. bathroom spotless. hotel is walking distance to lo-do and larimar square. will recommend to friends and family when visiting Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>my partner and I stayed for 1 night while on a road trip. hotel in great location. staff very friendly and check in was quick . great facilities in room, i.e iron/board, tea nad coffee machine. comfy clean beds. bathroom spotless. hotel is walking distance to lo-do and larimar square. will recommend to friends and family when visiting Denver.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r598154401-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
     <t>598154401</t>
-  </si>
-  <si>
-    <t>07/21/2018</t>
   </si>
   <si>
     <t>Good Value</t>
@@ -290,15 +641,75 @@
     <t>The rooms were quiet, the staff friendly, and there is a convenient restaurant on the first floor of the hotel.  The hotel is in walking distance of plenty of downtown attractions as well as a bike trail.MoreShow less</t>
   </si>
   <si>
-    <t>Sacha  J, Front Office Manager at Crowne Plaza Denver, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Sacha  J, Front Office Manager at Crowne Plaza Denver, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
   </si>
   <si>
     <t>The rooms were quiet, the staff friendly, and there is a convenient restaurant on the first floor of the hotel.  The hotel is in walking distance of plenty of downtown attractions as well as a bike trail.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r593761324-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593761324</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>This place is good.</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this hotel and I enjoy it for the following reasons: location, convenience, and decor.Location - Its nestled in between the Colorado Convention Center and the Denver Pavilions.  Business? Check.  Shopping? Check.  The parking is also super convenient.  They've got their own garage, and its not around the block, like some city hotels.  Its right outside check-in; just simply use your hotel key for entry.The decor is also on-point.  Its mid-century modern in the lobby and ultra modern geometric in the rooms.  Its the kind of decor you'd want to do your whole house in... if it weren't going out of style in five years.  The only element that betrays the age of the space is the popcorn ceiling.  Why did we ever think the cottage cheese look was cool?The previous reviews complaining about the price of parking really don't understand that overnight parking in Denver is hard to find.  There's a small amount of street parking out front, but make sure its not on a snowplow day.  Other than that, an outdoor lot will costs you at least $22 a night.  I'd rather have the convenience and cover for both summer and winter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this hotel and I enjoy it for the following reasons: location, convenience, and decor.Location - Its nestled in between the Colorado Convention Center and the Denver Pavilions.  Business? Check.  Shopping? Check.  The parking is also super convenient.  They've got their own garage, and its not around the block, like some city hotels.  Its right outside check-in; just simply use your hotel key for entry.The decor is also on-point.  Its mid-century modern in the lobby and ultra modern geometric in the rooms.  Its the kind of decor you'd want to do your whole house in... if it weren't going out of style in five years.  The only element that betrays the age of the space is the popcorn ceiling.  Why did we ever think the cottage cheese look was cool?The previous reviews complaining about the price of parking really don't understand that overnight parking in Denver is hard to find.  There's a small amount of street parking out front, but make sure its not on a snowplow day.  Other than that, an outdoor lot will costs you at least $22 a night.  I'd rather have the convenience and cover for both summer and winter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r593306246-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593306246</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Expensive parking</t>
+  </si>
+  <si>
+    <t>Great room rate, but parking was $70 for 2 nights.Lines at the front desk with only 1 person workingKey cards were a complaint by many including my groupElevators all out of order in the middle of the day, had to walk 17 floors Great location and room rateMoreShow less</t>
+  </si>
+  <si>
+    <t>Great room rate, but parking was $70 for 2 nights.Lines at the front desk with only 1 person workingKey cards were a complaint by many including my groupElevators all out of order in the middle of the day, had to walk 17 floors Great location and room rateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r592787994-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592787994</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Great time great place</t>
+  </si>
+  <si>
+    <t>We did get a call and told to be back in 10min. We had just sat down for dinner. So we excused ourselves and went back to the dogs. The hotel was very nice. I was surprised they allowed dogs! 10! 10! 10!MoreShow less</t>
+  </si>
+  <si>
+    <t>We did get a call and told to be back in 10min. We had just sat down for dinner. So we excused ourselves and went back to the dogs. The hotel was very nice. I was surprised they allowed dogs! 10! 10! 10!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r592471314-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -311,10 +722,10 @@
     <t>Room</t>
   </si>
   <si>
-    <t>Horrible customer service with “security”. We’re told at check in there was a mix up with rooms so we ended up in a suite with 4 people. The pull out bed had no bedding in the room. We called for it and they brought us a roll away bed with sheets and a pillow only. We had to ask for a blanket and received horrible attitude. They asked us if we needed anything else so they didn’t have to come to our room again.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>Horrible customer service with “security”. We’re told at check in there was a mix up with rooms so we ended up in a suite with 4 people. The pull out bed had no bedding in the room. We called for it and they brought us a roll away bed with sheets and a pillow only. We had to ask for a blanket and received horrible attitude. They asked us if we needed anything else so they didn’t have to come to our room again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible customer service with “security”. We’re told at check in there was a mix up with rooms so we ended up in a suite with 4 people. The pull out bed had no bedding in the room. We called for it and they brought us a roll away bed with sheets and a pillow only. We had to ask for a blanket and received horrible attitude. They asked us if we needed anything else so they didn’t have to come to our room again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r592188852-Crowne_Plaza_Denver-Denver_Colorado.html</t>
@@ -349,21 +760,54 @@
     <t>Right in the middle of just about everything in Denver, rooms were very clean and recently updated.  Bed was really comfortable, staff was great.  Only downside was the $35.00 fee for parking in the garage.MoreShow less</t>
   </si>
   <si>
-    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded 2 weeks ago</t>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded July 12, 2018</t>
   </si>
   <si>
     <t>Right in the middle of just about everything in Denver, rooms were very clean and recently updated.  Bed was really comfortable, staff was great.  Only downside was the $35.00 fee for parking in the garage.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r592003689-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592003689</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Not your average hotel</t>
+  </si>
+  <si>
+    <t>I had  the pleasure of staying here with no CONCIERGE lounge,  np complimentary breakfast unless you complain ir get "comped" ,  rooms average, pool affords you to call downstairs to order bar,  food selections. The breakfast is approx $18.50, the bar is delightful,wi fii available and Tom is EXCEPTIONAL  had he not afforded us assistance i would have located another chain.  Again i am beside myself no complimentary bkfst. The amount of money wasnt appropropriate for the lack of services im accustomed to while traveling. Had they afforded me breakfast,  coffee or WATER in my room it would be ok ...... back to J.W. only!I will note the staff was kind. The food service staff sweet. MoreShow less</t>
+  </si>
+  <si>
+    <t>I had  the pleasure of staying here with no CONCIERGE lounge,  np complimentary breakfast unless you complain ir get "comped" ,  rooms average, pool affords you to call downstairs to order bar,  food selections. The breakfast is approx $18.50, the bar is delightful,wi fii available and Tom is EXCEPTIONAL  had he not afforded us assistance i would have located another chain.  Again i am beside myself no complimentary bkfst. The amount of money wasnt appropropriate for the lack of services im accustomed to while traveling. Had they afforded me breakfast,  coffee or WATER in my room it would be ok ...... back to J.W. only!I will note the staff was kind. The food service staff sweet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r590423953-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590423953</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>A quick visit</t>
+  </si>
+  <si>
+    <t>Rooms seemed to be nicely renovated as I looked at images of them as far as 8 years ago and they weren’t doing well at the time. Checking in was incredible easy and the staff was extremely friendly. I stayed in my room most of the time I was in the hotel but the bed was very comfortable and the pillows as well. Only things I was kind of iffy about was the fact that there’s no fan in the bathroom, and my view was just of the parking garage, but what can ya do, I still had a good time.The pool was beautiful. Went up early after breakfast (which was actually very yummy!) and swam with my roomie before it rained. Checkout process was easy as well! 16th street mall is super close and there are many great options for food and other attractions! If you are staying, make sure you remember that you need your key card to use the elevator or else it wont go to your floor. I was told this at the front desk but the people in front of me weren’t told so I hope they already knew! Thanks for a nice overnight stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms seemed to be nicely renovated as I looked at images of them as far as 8 years ago and they weren’t doing well at the time. Checking in was incredible easy and the staff was extremely friendly. I stayed in my room most of the time I was in the hotel but the bed was very comfortable and the pillows as well. Only things I was kind of iffy about was the fact that there’s no fan in the bathroom, and my view was just of the parking garage, but what can ya do, I still had a good time.The pool was beautiful. Went up early after breakfast (which was actually very yummy!) and swam with my roomie before it rained. Checkout process was easy as well! 16th street mall is super close and there are many great options for food and other attractions! If you are staying, make sure you remember that you need your key card to use the elevator or else it wont go to your floor. I was told this at the front desk but the people in front of me weren’t told so I hope they already knew! Thanks for a nice overnight stay. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r590386454-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
     <t>590386454</t>
   </si>
   <si>
-    <t>06/24/2018</t>
-  </si>
-  <si>
     <t>Pleasent Stay For a Few Nights</t>
   </si>
   <si>
@@ -406,6 +850,48 @@
     <t>I am an IHG Rewards member and decided to use my Rewards Points with Crowne Plaza Denver for my Denver Comic Con trip. In the past, I have stayed at other hotels close to the Colorado Convention Center and am delighted to say that my stay with Crowne Plaza was friendly, comfortable, accommodating and all around fantastic. Personal favorites: 1. Close to the 16th Street Mall District and the Colorado Convention Center - most things are in walking distance. 2. The restaurant/bar within the hotel - our food was delicious. 3. The "To Go" store with a kiosk checkout within the hotel - I got Tylenol and snacks in one stop. 4. Parking garage at a reasonable rate. and last, but certainly not least, 5. the very friendly staff!! There were only two drawbacks - the elevators. The doors close insanely fast and the fact that the large luggage carts are few and far between with folks waiting all the time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r589786806-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>589786806</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The hotel is adjacent to the Denver Pavilion shopping area which is part of the sprawling 16th street pedestrian mall.  There are many good restaurant options and shops within very easy walking distance. This is true of all the tourist attractions as well (US Mint, Capitol, museums, convention center).  There are also free shuttle buses that run the 20 block length of the mall from Union Station to the capitol complex.  It's easy to deal with luggage if you take the A Train ($9) from the airport to Union Station. The mall shuttles run every few minutes and have luggage storage areas. The hotel's rooms are a good size and comfortable.  The furnishings are little 90s, but well maintained. The bathrooms are clean with good lighting. Things appear thrown into the room's closet (the folding luggage rack doesn't quite fit).  But all the amenities are there that you would expect and want. The windows and TV are large for the space.  The view isn't great from the front of the hotel (not sure about the other sides).  There is a small grab and go for simple food and drink options in the lobby (next to the lounge &amp; restaurant) where you can self check-out by charging to your room. You have to press your room key to the elevator keypad to make it work.  It was a little frustrating at first since the front desk didn't inform me of this....The hotel is adjacent to the Denver Pavilion shopping area which is part of the sprawling 16th street pedestrian mall.  There are many good restaurant options and shops within very easy walking distance. This is true of all the tourist attractions as well (US Mint, Capitol, museums, convention center).  There are also free shuttle buses that run the 20 block length of the mall from Union Station to the capitol complex.  It's easy to deal with luggage if you take the A Train ($9) from the airport to Union Station. The mall shuttles run every few minutes and have luggage storage areas. The hotel's rooms are a good size and comfortable.  The furnishings are little 90s, but well maintained. The bathrooms are clean with good lighting. Things appear thrown into the room's closet (the folding luggage rack doesn't quite fit).  But all the amenities are there that you would expect and want. The windows and TV are large for the space.  The view isn't great from the front of the hotel (not sure about the other sides).  There is a small grab and go for simple food and drink options in the lobby (next to the lounge &amp; restaurant) where you can self check-out by charging to your room. You have to press your room key to the elevator keypad to make it work.  It was a little frustrating at first since the front desk didn't inform me of this.  The lobby appears small but is bright.  The lower part of the hotel is garage which makes the building unattractive at first glance; but is a good value for being in the heart of the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is adjacent to the Denver Pavilion shopping area which is part of the sprawling 16th street pedestrian mall.  There are many good restaurant options and shops within very easy walking distance. This is true of all the tourist attractions as well (US Mint, Capitol, museums, convention center).  There are also free shuttle buses that run the 20 block length of the mall from Union Station to the capitol complex.  It's easy to deal with luggage if you take the A Train ($9) from the airport to Union Station. The mall shuttles run every few minutes and have luggage storage areas. The hotel's rooms are a good size and comfortable.  The furnishings are little 90s, but well maintained. The bathrooms are clean with good lighting. Things appear thrown into the room's closet (the folding luggage rack doesn't quite fit).  But all the amenities are there that you would expect and want. The windows and TV are large for the space.  The view isn't great from the front of the hotel (not sure about the other sides).  There is a small grab and go for simple food and drink options in the lobby (next to the lounge &amp; restaurant) where you can self check-out by charging to your room. You have to press your room key to the elevator keypad to make it work.  It was a little frustrating at first since the front desk didn't inform me of this....The hotel is adjacent to the Denver Pavilion shopping area which is part of the sprawling 16th street pedestrian mall.  There are many good restaurant options and shops within very easy walking distance. This is true of all the tourist attractions as well (US Mint, Capitol, museums, convention center).  There are also free shuttle buses that run the 20 block length of the mall from Union Station to the capitol complex.  It's easy to deal with luggage if you take the A Train ($9) from the airport to Union Station. The mall shuttles run every few minutes and have luggage storage areas. The hotel's rooms are a good size and comfortable.  The furnishings are little 90s, but well maintained. The bathrooms are clean with good lighting. Things appear thrown into the room's closet (the folding luggage rack doesn't quite fit).  But all the amenities are there that you would expect and want. The windows and TV are large for the space.  The view isn't great from the front of the hotel (not sure about the other sides).  There is a small grab and go for simple food and drink options in the lobby (next to the lounge &amp; restaurant) where you can self check-out by charging to your room. You have to press your room key to the elevator keypad to make it work.  It was a little frustrating at first since the front desk didn't inform me of this.  The lobby appears small but is bright.  The lower part of the hotel is garage which makes the building unattractive at first glance; but is a good value for being in the heart of the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r589347254-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>589347254</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Rooms renovated very nicely</t>
+  </si>
+  <si>
+    <t>There for 5 days.  Super close to all the downtown attractions.  Nice rooftop pool area.  Pool was warm.  King room was very nice, comfortable bed, everything new.  Hallways are still old but rooms are beautiful.  Would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>There for 5 days.  Super close to all the downtown attractions.  Nice rooftop pool area.  Pool was warm.  King room was very nice, comfortable bed, everything new.  Hallways are still old but rooms are beautiful.  Would definitely stay again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r588581061-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -421,15 +907,6 @@
     <t>I was torn about my experience here. While the location was excellent (centrally located, within a mile or less to major sights, and a block away from 16th St. mall with lots of shops and dining) and everyone who I encountered on the staff here was mostly friendly and helpful, there were a few things that weren't so great. The air conditioner was extra noisy and blew out air that smelled like the sewer. When we returned to our room one of the days in the late evening, our room was not cleaned. And when we called housekeeping, they said they wouldn't be able to clean it but put in a "request" for the following day. That was weird. Then when housekeeping at least came with new towels, she said they were "busy." Isn't it the hotel's job to ensure that all rooms are cleaned? Other than that, the room was nice and modern.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 21, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 21, 2018</t>
-  </si>
-  <si>
     <t>I was torn about my experience here. While the location was excellent (centrally located, within a mile or less to major sights, and a block away from 16th St. mall with lots of shops and dining) and everyone who I encountered on the staff here was mostly friendly and helpful, there were a few things that weren't so great. The air conditioner was extra noisy and blew out air that smelled like the sewer. When we returned to our room one of the days in the late evening, our room was not cleaned. And when we called housekeeping, they said they wouldn't be able to clean it but put in a "request" for the following day. That was weird. Then when housekeeping at least came with new towels, she said they were "busy." Isn't it the hotel's job to ensure that all rooms are cleaned? Other than that, the room was nice and modern.More</t>
   </si>
   <si>
@@ -466,6 +943,61 @@
     <t>We stayed for 1 night in the hotel for our trip through the rockys. The appearance of the room is very nice. When going to bed we realized a disturbing ongoing noise. I think it's a combination from a noise outside and a ventilation which is located directly beside the door of the room.Perhaps it's the typical problem that people which stay only 1 night, always get the worst rooms available. If anybody gets room 606, ask for a different one.RegardsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r587788835-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587788835</t>
+  </si>
+  <si>
+    <t>Within a stones throw of 16th Street.</t>
+  </si>
+  <si>
+    <t>As a 65th birthday treat to myself, we took the Amtrak from Emeryville to Chicago and decided to stop off in Denver. I was with my daughter. Yes I'd heard of Denver but never met anyone who'd visited.
+The Crowne Plaza seemed to be ideally sited and reasonably priced for it's location, just a block from 16th Street. 
+We weren't disappointed.
+On arrival the reception staff were more than helpful with the check-in procedures done in a polite friendly and professional fashion, the concierge offering to take our cases to the rooms, which we declined, but the offer was there.
+Numerous lifts were available, and we were on the 20th floor.The room was spacious with A/C operated via a wall control. The usual king size bed was ample for one, in fact I don't think I reached halfway during the night. Four pillows were on the bed, 2 soft 2 firm. Your choice but I had one of each.
+There was a sofa, chair and desk and a large wall hung tv. All in good order and clean.
+The bathroom had a bath with shower and a large enough basin with mirrored surround with lighting. Clean and towels were changed if required. I personally don't at home so didn't during our stay. Soap and shower liquid was also given.
+There was also a coffee machine with the usual tea/coffee available and easy to use.
+During our stay i didn't hear...As a 65th birthday treat to myself, we took the Amtrak from Emeryville to Chicago and decided to stop off in Denver. I was with my daughter. Yes I'd heard of Denver but never met anyone who'd visited.The Crowne Plaza seemed to be ideally sited and reasonably priced for it's location, just a block from 16th Street. We weren't disappointed.On arrival the reception staff were more than helpful with the check-in procedures done in a polite friendly and professional fashion, the concierge offering to take our cases to the rooms, which we declined, but the offer was there.Numerous lifts were available, and we were on the 20th floor.The room was spacious with A/C operated via a wall control. The usual king size bed was ample for one, in fact I don't think I reached halfway during the night. Four pillows were on the bed, 2 soft 2 firm. Your choice but I had one of each.There was a sofa, chair and desk and a large wall hung tv. All in good order and clean.The bathroom had a bath with shower and a large enough basin with mirrored surround with lighting. Clean and towels were changed if required. I personally don't at home so didn't during our stay. Soap and shower liquid was also given.There was also a coffee machine with the usual tea/coffee available and easy to use.During our stay i didn't hear any noise outside the room from guests, and only slight roadside noise which wasn't overly loud and didn't wake me during the nights.My daughter had her own room, and she had much the same experience of the Crowne Plaza.All in all, would we come again? Without a second thought.Could we recommend the Crowne Plaza? Oh yes.As for Denver, If you've never thought about a visit, well I'd say give it a go, but don't forget it's not known as the mile high city for nothing. 16th Street is a great place to walk, shop and stop for refreshments and sit outside and people watch. There's FREE hop on hop off buses that run up and down 16th.Visit the Civic Centre Park or take a bus tour. We also went to a ball game in Coors Field. A new experience, and fun. Sorry, but I still prefer UK rugby union.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a 65th birthday treat to myself, we took the Amtrak from Emeryville to Chicago and decided to stop off in Denver. I was with my daughter. Yes I'd heard of Denver but never met anyone who'd visited.
+The Crowne Plaza seemed to be ideally sited and reasonably priced for it's location, just a block from 16th Street. 
+We weren't disappointed.
+On arrival the reception staff were more than helpful with the check-in procedures done in a polite friendly and professional fashion, the concierge offering to take our cases to the rooms, which we declined, but the offer was there.
+Numerous lifts were available, and we were on the 20th floor.The room was spacious with A/C operated via a wall control. The usual king size bed was ample for one, in fact I don't think I reached halfway during the night. Four pillows were on the bed, 2 soft 2 firm. Your choice but I had one of each.
+There was a sofa, chair and desk and a large wall hung tv. All in good order and clean.
+The bathroom had a bath with shower and a large enough basin with mirrored surround with lighting. Clean and towels were changed if required. I personally don't at home so didn't during our stay. Soap and shower liquid was also given.
+There was also a coffee machine with the usual tea/coffee available and easy to use.
+During our stay i didn't hear...As a 65th birthday treat to myself, we took the Amtrak from Emeryville to Chicago and decided to stop off in Denver. I was with my daughter. Yes I'd heard of Denver but never met anyone who'd visited.The Crowne Plaza seemed to be ideally sited and reasonably priced for it's location, just a block from 16th Street. We weren't disappointed.On arrival the reception staff were more than helpful with the check-in procedures done in a polite friendly and professional fashion, the concierge offering to take our cases to the rooms, which we declined, but the offer was there.Numerous lifts were available, and we were on the 20th floor.The room was spacious with A/C operated via a wall control. The usual king size bed was ample for one, in fact I don't think I reached halfway during the night. Four pillows were on the bed, 2 soft 2 firm. Your choice but I had one of each.There was a sofa, chair and desk and a large wall hung tv. All in good order and clean.The bathroom had a bath with shower and a large enough basin with mirrored surround with lighting. Clean and towels were changed if required. I personally don't at home so didn't during our stay. Soap and shower liquid was also given.There was also a coffee machine with the usual tea/coffee available and easy to use.During our stay i didn't hear any noise outside the room from guests, and only slight roadside noise which wasn't overly loud and didn't wake me during the nights.My daughter had her own room, and she had much the same experience of the Crowne Plaza.All in all, would we come again? Without a second thought.Could we recommend the Crowne Plaza? Oh yes.As for Denver, If you've never thought about a visit, well I'd say give it a go, but don't forget it's not known as the mile high city for nothing. 16th Street is a great place to walk, shop and stop for refreshments and sit outside and people watch. There's FREE hop on hop off buses that run up and down 16th.Visit the Civic Centre Park or take a bus tour. We also went to a ball game in Coors Field. A new experience, and fun. Sorry, but I still prefer UK rugby union.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r587465801-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587465801</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Center of Denver</t>
+  </si>
+  <si>
+    <t>In Downtown Denver, this is a very modern hotel, with a parking garage. Unlike other big city Crowne Plazas, there is no valet nor bellhops. Next to the front door, is a small store for beverages, snacks and necessary travel items, one might have forgotten. The parking garage, each floor is split levels and can be confusing if you don’t remember where you put the car. The rooms are very clean and sleek modern, but a tad boring in all white and gray. On the plus side, they have lots of outlets and USB ports to charge your devices. If you have the IHG app, they claim you can use it as your room key. It didn’t work for us. Keep your room key on you at all times, as you’ll need it to activate the elevator. For a city hotel, the price was reasonable. Though no free breakfast. Within walking distance of shopping and restaurants. With heavy traffic, about 35 minutes from the Denver Airport. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>In Downtown Denver, this is a very modern hotel, with a parking garage. Unlike other big city Crowne Plazas, there is no valet nor bellhops. Next to the front door, is a small store for beverages, snacks and necessary travel items, one might have forgotten. The parking garage, each floor is split levels and can be confusing if you don’t remember where you put the car. The rooms are very clean and sleek modern, but a tad boring in all white and gray. On the plus side, they have lots of outlets and USB ports to charge your devices. If you have the IHG app, they claim you can use it as your room key. It didn’t work for us. Keep your room key on you at all times, as you’ll need it to activate the elevator. For a city hotel, the price was reasonable. Though no free breakfast. Within walking distance of shopping and restaurants. With heavy traffic, about 35 minutes from the Denver Airport. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r587253376-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -484,12 +1016,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 15, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 15, 2018</t>
-  </si>
-  <si>
     <t>Nice hotel, great location, comfy and clean beds. The hotel is downtown, and is very close to everything. The parking is conveniently located, but it is paid. Overall, spent 1 night here and it was perfect. Would stay again!More</t>
   </si>
   <si>
@@ -526,6 +1052,45 @@
     <t>The hand written note from General Manager Sacha Jurva welcoming me to the hotel set the tone for my visit.  From there my visit went very well.  Within walking distance from bars, restaurants, and the convention center I really didn't need a car which came with a charge of $35 daily.  Next time I will catch the shuttle as this will be my preferred stay location when visiting downtown Denver.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r586356978-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586356978</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel for a week, and although nothing bad occurred I noticed several flaws.  First, the check in staff doesn’t tell anyone the trick to getting to your floor.  You have to hold your room keycard over a small black box on the elevator and wait for a small green light to appear before selecting your floor, otherwise the elevator will go right past your floor (after you thought you had selected it) and you will have to ride until someone gets on and tells you how to work the elevator.  This happened to new people every day.  Also, although there are 2 sets of buttons on each elevator, there is only one black box below one set of buttons...why have 2 sets of buttons?!  Secondly, the beds are quite hard and uncomfortable.  Thirdly, although the bathroom had been remodeled, it was quite small.  Fourth, the door to my room Looked beat up and worn.  And speaking of my room door, it was directly across the hall from the elevator, so anyone on the elevator when I got off could see which room I was in.  There were no security cameras on my floor.  My room did not contain a dresser or a couch... there was no room for either.  It did contain a very small/dorm-sized fridge (but no microwave).  It had a Keurig machine and 2 kcups but no creamer.  The elevators themselves were not...I just stayed at this hotel for a week, and although nothing bad occurred I noticed several flaws.  First, the check in staff doesn’t tell anyone the trick to getting to your floor.  You have to hold your room keycard over a small black box on the elevator and wait for a small green light to appear before selecting your floor, otherwise the elevator will go right past your floor (after you thought you had selected it) and you will have to ride until someone gets on and tells you how to work the elevator.  This happened to new people every day.  Also, although there are 2 sets of buttons on each elevator, there is only one black box below one set of buttons...why have 2 sets of buttons?!  Secondly, the beds are quite hard and uncomfortable.  Thirdly, although the bathroom had been remodeled, it was quite small.  Fourth, the door to my room Looked beat up and worn.  And speaking of my room door, it was directly across the hall from the elevator, so anyone on the elevator when I got off could see which room I was in.  There were no security cameras on my floor.  My room did not contain a dresser or a couch... there was no room for either.  It did contain a very small/dorm-sized fridge (but no microwave).  It had a Keurig machine and 2 kcups but no creamer.  The elevators themselves were not slow, but since there are only 4 serving the entire hotel, you will have to wait for them during peak usage times.  The whole setup seemed very odd and dated to me.  The bill left under my door on the last evening was correct.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel for a week, and although nothing bad occurred I noticed several flaws.  First, the check in staff doesn’t tell anyone the trick to getting to your floor.  You have to hold your room keycard over a small black box on the elevator and wait for a small green light to appear before selecting your floor, otherwise the elevator will go right past your floor (after you thought you had selected it) and you will have to ride until someone gets on and tells you how to work the elevator.  This happened to new people every day.  Also, although there are 2 sets of buttons on each elevator, there is only one black box below one set of buttons...why have 2 sets of buttons?!  Secondly, the beds are quite hard and uncomfortable.  Thirdly, although the bathroom had been remodeled, it was quite small.  Fourth, the door to my room Looked beat up and worn.  And speaking of my room door, it was directly across the hall from the elevator, so anyone on the elevator when I got off could see which room I was in.  There were no security cameras on my floor.  My room did not contain a dresser or a couch... there was no room for either.  It did contain a very small/dorm-sized fridge (but no microwave).  It had a Keurig machine and 2 kcups but no creamer.  The elevators themselves were not...I just stayed at this hotel for a week, and although nothing bad occurred I noticed several flaws.  First, the check in staff doesn’t tell anyone the trick to getting to your floor.  You have to hold your room keycard over a small black box on the elevator and wait for a small green light to appear before selecting your floor, otherwise the elevator will go right past your floor (after you thought you had selected it) and you will have to ride until someone gets on and tells you how to work the elevator.  This happened to new people every day.  Also, although there are 2 sets of buttons on each elevator, there is only one black box below one set of buttons...why have 2 sets of buttons?!  Secondly, the beds are quite hard and uncomfortable.  Thirdly, although the bathroom had been remodeled, it was quite small.  Fourth, the door to my room Looked beat up and worn.  And speaking of my room door, it was directly across the hall from the elevator, so anyone on the elevator when I got off could see which room I was in.  There were no security cameras on my floor.  My room did not contain a dresser or a couch... there was no room for either.  It did contain a very small/dorm-sized fridge (but no microwave).  It had a Keurig machine and 2 kcups but no creamer.  The elevators themselves were not slow, but since there are only 4 serving the entire hotel, you will have to wait for them during peak usage times.  The whole setup seemed very odd and dated to me.  The bill left under my door on the last evening was correct.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r584652674-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584652674</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Nice Downtown Location and Reasonable Price</t>
+  </si>
+  <si>
+    <t>There are other hotels that are more upscale in appearance or in the lobby but they seem to be more pricey. In the end, they have all the same amenities and the rooms are just like the others. Stayed in a room on the end which doesn’t have a closet which I’ve never experienced in a hotel room.Well worth the stay if the location works well for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>There are other hotels that are more upscale in appearance or in the lobby but they seem to be more pricey. In the end, they have all the same amenities and the rooms are just like the others. Stayed in a room on the end which doesn’t have a closet which I’ve never experienced in a hotel room.Well worth the stay if the location works well for you.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583906855-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -541,12 +1106,6 @@
     <t>This is the second time I have been to this hotel and I would go back in an instant. The first time was for my bridal shower and the room we had accommodated all of my guests and the food was delicious! The room even had an AV set up so that we could play a video of my fiancé, which was a major part of the day! The second time was this past week and it exceeded all of our expectations. The pool on the 6th floor was amazing! I wouldn't imagine many downtown hotels have an outdoor heated pool like this one, and the view...fantastic! The newly renovated rooms were nice. I liked the way the room was set up and the bed was comfy too! Lastly, this was the first hotel I have been at where if you keep the "do not disturb" sign up, the housekeeping staff double checks on if you wanted the room cleaned. We had the sign on our door for all three days we were there and the second day we came back to a note asking if we needed our room cleaned since they noticed the room hadn't been cleaned yet. Highly recommend this hotel!MoreShow less</t>
   </si>
   <si>
-    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded June 5, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 5, 2018</t>
-  </si>
-  <si>
     <t>This is the second time I have been to this hotel and I would go back in an instant. The first time was for my bridal shower and the room we had accommodated all of my guests and the food was delicious! The room even had an AV set up so that we could play a video of my fiancé, which was a major part of the day! The second time was this past week and it exceeded all of our expectations. The pool on the 6th floor was amazing! I wouldn't imagine many downtown hotels have an outdoor heated pool like this one, and the view...fantastic! The newly renovated rooms were nice. I liked the way the room was set up and the bed was comfy too! Lastly, this was the first hotel I have been at where if you keep the "do not disturb" sign up, the housekeeping staff double checks on if you wanted the room cleaned. We had the sign on our door for all three days we were there and the second day we came back to a note asking if we needed our room cleaned since they noticed the room hadn't been cleaned yet. Highly recommend this hotel!More</t>
   </si>
   <si>
@@ -583,15 +1142,45 @@
     <t>First time visiting Denver and was pleased with my stay here. Friendly staff - thanks to Jenna and Joe who were quite helpful and accommodating. Arrived before check-in time, and was allowed to do so at the time of arrival, Nice view of the city and conveniently located near 16th street mall which has lots to do and a free bus service to help make getting around a little easier. Take the A train from the airport all the way to Union Station and hop on the bus to Glenarm and its a short walk to the hotel.This property has a pool, which was nicely decorated and popular among guests. There is a designated area on the 4th floor for those looking to enjoy cannabis while visiting. Great lobby bar/lounge/restaurant that is fairly new. Enterprise rent-a-car is just a few blocks away (a car is definitely helpful in Denver).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583645666-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583645666</t>
+  </si>
+  <si>
+    <t>Memorial Day weekemd</t>
+  </si>
+  <si>
+    <t>Hotel is in a great location. So many options for dining, shopping, and entertainment all so close. We arrived late Friday night. No line at check in. Went up to our room. Our only complaint was that it could have been colder in our room. When we got to our room we were a little disappointed to be located right in front of the elevators. We figured it be loud. But it wasn’t to terrible, just in the mornings with people heading to breakfast or the pool(we were on the 6th floor the same floor as the pool). Pool was nice. Great touch for warm days. It was crowded by the time we checked it out Saturday and was shaded by the building. But it was a nice feature. We would stay here again for sure. Great value and great location!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is in a great location. So many options for dining, shopping, and entertainment all so close. We arrived late Friday night. No line at check in. Went up to our room. Our only complaint was that it could have been colder in our room. When we got to our room we were a little disappointed to be located right in front of the elevators. We figured it be loud. But it wasn’t to terrible, just in the mornings with people heading to breakfast or the pool(we were on the 6th floor the same floor as the pool). Pool was nice. Great touch for warm days. It was crowded by the time we checked it out Saturday and was shaded by the building. But it was a nice feature. We would stay here again for sure. Great value and great location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583508313-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583508313</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>The hotel was nice! Ariel was amazing! Housekeeping was not good! I had to call on the first day and the second day they just didnt come at all! There was also a rude lady at the front desk on sunday night may 27th who offered me a random used plastic bag for ice when I asked for an ice bag! The pool was nice and warm and all of my other encounters were pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was nice! Ariel was amazing! Housekeeping was not good! I had to call on the first day and the second day they just didnt come at all! There was also a rude lady at the front desk on sunday night may 27th who offered me a random used plastic bag for ice when I asked for an ice bag! The pool was nice and warm and all of my other encounters were pleasant.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r583487792-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
     <t>583487792</t>
   </si>
   <si>
-    <t>05/28/2018</t>
-  </si>
-  <si>
     <t>Great Location, close to everything</t>
   </si>
   <si>
@@ -634,6 +1223,42 @@
     <t>Great location  within walking  distance  to a lot of restaurants and bars. Need to factor in the 35.00 per night parking fee as there is no free parking. Room was nice and bed was comfortable. Check in was ok. The guy working was not friendly. I asked if they had any double rooms available  as we bought our children and was told " if I get asked that  one more time I am going to freak out". Explained that I had called the day before and was told they may not have any and we could get a roll a way bed at no charge ( which I was fine with). It took about 5 hrs and 3 trips down to the desk to get the roll a way bed up to our room. This was the only negative  experiance we had. The gal working at the bar was great and we enjoyed trying some local brews. Pool was wonderful and not cold at all. Lady working when I checked out was nice. Would stay again if needing to be Downtown.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r582728896-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>582728896</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabulous </t>
+  </si>
+  <si>
+    <t>Love the new look Crowne Plaza, the lobby, market  place and work pods are great. The rooms, sleek and modern with lots of power outlets and work areas. Only one small issue, no drawers to unpack into. Comfy bed and pillows. MoreShow less</t>
+  </si>
+  <si>
+    <t>Love the new look Crowne Plaza, the lobby, market  place and work pods are great. The rooms, sleek and modern with lots of power outlets and work areas. Only one small issue, no drawers to unpack into. Comfy bed and pillows. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r582236940-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>582236940</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Tremendous Improvement</t>
+  </si>
+  <si>
+    <t>I recently attended a conference at the Crowne Plaza Denver Downtown.  The hotel has made some great improvements since I was there a couple years ago.  Most all of the hotel has been renovated and the staff were great.  Would stay there again, especially since I like the location just a block away from the restaurants on the 16th street mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently attended a conference at the Crowne Plaza Denver Downtown.  The hotel has made some great improvements since I was there a couple years ago.  Most all of the hotel has been renovated and the staff were great.  Would stay there again, especially since I like the location just a block away from the restaurants on the 16th street mall.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r581742635-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -649,12 +1274,6 @@
     <t>The room was amazing, the employees were so kind and caring! It is located in an amazing part of Denver. I got to walk right out the hotel door and see all the beautiful roads and different things to do! Great place to go!!!MoreShow less</t>
   </si>
   <si>
-    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 23, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 23, 2018</t>
-  </si>
-  <si>
     <t>The room was amazing, the employees were so kind and caring! It is located in an amazing part of Denver. I got to walk right out the hotel door and see all the beautiful roads and different things to do! Great place to go!!!More</t>
   </si>
   <si>
@@ -691,15 +1310,36 @@
     <t>A great location 5-10 minutes walk to cafes, shopping malls, conference centres, all is perfect,y placed. The rooms are a good size, the bathroom is huge, the bar and restaraunt is very good, the concierge is excellent and the reception staff are exceptional- a superb hotelMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580924323-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580924323</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Stay and no Disappointment </t>
+  </si>
+  <si>
+    <t>From your check in to check out you will not be disappointed. The desk staff is extremely helpful and always with a smile the rooms are great with a super comfy bed. The television is huge, but unfortunately no access to the playoff hockey games. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sacha  J, General Manager at Crowne Plaza Denver, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>From your check in to check out you will not be disappointed. The desk staff is extremely helpful and always with a smile the rooms are great with a super comfy bed. The television is huge, but unfortunately no access to the playoff hockey games. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580882104-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
     <t>580882104</t>
   </si>
   <si>
-    <t>05/17/2018</t>
-  </si>
-  <si>
     <t>Great location in a great city!</t>
   </si>
   <si>
@@ -751,15 +1391,45 @@
     <t>I arrived a few days early for a business trip so I could do a little sightseeing and this hotel was in the perfect location! Walking distance to tons of restaurants and shops. Hotel was recently renovated and looks great, friendly staff that were very helpful. I'd definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580257318-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580257318</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Pleasant &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Crowne Plaza Denver and had a great time with my family. Our room was clean &amp; fresh. The beds were very comfortable and the pillows were my favorite!  The staff was super friendly &amp; I was checked-in quickly with out any difficulties. The location is perfect being close to many restaurants &amp; things to do in Denver.  This hotel is a GEM and I will stay again for sure!  Thank you for the nice stay Crowne Plaza !MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Crowne Plaza Denver and had a great time with my family. Our room was clean &amp; fresh. The beds were very comfortable and the pillows were my favorite!  The staff was super friendly &amp; I was checked-in quickly with out any difficulties. The location is perfect being close to many restaurants &amp; things to do in Denver.  This hotel is a GEM and I will stay again for sure!  Thank you for the nice stay Crowne Plaza !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580238274-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580238274</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>The location is terrifc - convenient to the heart of downtown Denver. The staff was attentive and quick to offer recommendations for some great restaurants within easy walking distance. And the rooms are newly-renovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is terrifc - convenient to the heart of downtown Denver. The staff was attentive and quick to offer recommendations for some great restaurants within easy walking distance. And the rooms are newly-renovated.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r580221264-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
     <t>580221264</t>
   </si>
   <si>
-    <t>05/14/2018</t>
-  </si>
-  <si>
     <t>Extremely nice stay at the hotel!</t>
   </si>
   <si>
@@ -811,6 +1481,39 @@
     <t>For the positives in this hotel, the beds were very comfortable and location was fantastic.Very busy the night we arrived, so was loud in the lobby, bar area, we could hardly hear the front desk for our check in.Our server for breakfast one morning was so friendly in the Lockwood, and buffet was great, but expensive. Our rooms we a little overpriced also, especially for a Wednesday and Thursday night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r579631949-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>579631949</t>
+  </si>
+  <si>
+    <t>Amazing Renovations</t>
+  </si>
+  <si>
+    <t>WOW!!! What a transformation at this hotel!! They have done an amazing job transforming this hotel to a beautiful place to stay!! From the lobby, bar and rooms all are truely wonderful. And the staff....I just can’t say enough about the Team!!  Very hospitable in every way...from front desk to housekeeping to the food and beverage staff!!  Will stay again. Thank you Team Crowne Plaza!!MoreShow less</t>
+  </si>
+  <si>
+    <t>WOW!!! What a transformation at this hotel!! They have done an amazing job transforming this hotel to a beautiful place to stay!! From the lobby, bar and rooms all are truely wonderful. And the staff....I just can’t say enough about the Team!!  Very hospitable in every way...from front desk to housekeeping to the food and beverage staff!!  Will stay again. Thank you Team Crowne Plaza!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r579322845-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>579322845</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel!</t>
+  </si>
+  <si>
+    <t>I wasn't here before the renovations were done but the hotel looks fantastic! Great location very convenient to things downtown in close to the free Mall bus. Lots of shopping and restaurants close by and the convention center is only a few blocks away.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't here before the renovations were done but the hotel looks fantastic! Great location very convenient to things downtown in close to the free Mall bus. Lots of shopping and restaurants close by and the convention center is only a few blocks away.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r578918573-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -871,6 +1574,36 @@
     <t>I really like this hotel and the location is awesome!  walking distant to great restaurants and shopping. Rooms are all remodeled, the staff is there to help make the stay most comfortable.  As a business traveler I highly recommend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r577716791-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577716791</t>
+  </si>
+  <si>
+    <t>Staff went above and beyond</t>
+  </si>
+  <si>
+    <t>I showed up early for my check in during a very busy time. Front desk outstanding job to accommodate my needs. They even found an upgrade for me.It is rare to find folks that look for solutions rather than discussing problem. The Crowne Plaza, Denver, staff found solutions.I will definitely make this hotel a priority on my next visitMoreShow less</t>
+  </si>
+  <si>
+    <t>I showed up early for my check in during a very busy time. Front desk outstanding job to accommodate my needs. They even found an upgrade for me.It is rare to find folks that look for solutions rather than discussing problem. The Crowne Plaza, Denver, staff found solutions.I will definitely make this hotel a priority on my next visitMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r577703211-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577703211</t>
+  </si>
+  <si>
+    <t>BEST IN DOWNTOWN</t>
+  </si>
+  <si>
+    <t>I would like to start off by saying that I come into Downtown Denver all the time from Glenwood Springs and this is my ""Go Too" hotel. This hotel has a staf that might be the best of any place I have stayed they are so top notch and with their recent remodel please trust me there is no reason to stay anywhere else in Denver. Right on the 16th street mall and shopping galore with all very high end shops and maybe some of the best food I have tasted anywhere in my travels are within a 5 minute walk. Please just bypass all the other gimicks and book with these wonderful people. Thank you all we so appreciate it.Kevin &amp; LeslieMoreShow less</t>
+  </si>
+  <si>
+    <t>I would like to start off by saying that I come into Downtown Denver all the time from Glenwood Springs and this is my ""Go Too" hotel. This hotel has a staf that might be the best of any place I have stayed they are so top notch and with their recent remodel please trust me there is no reason to stay anywhere else in Denver. Right on the 16th street mall and shopping galore with all very high end shops and maybe some of the best food I have tasted anywhere in my travels are within a 5 minute walk. Please just bypass all the other gimicks and book with these wonderful people. Thank you all we so appreciate it.Kevin &amp; LeslieMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r577682752-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -934,15 +1667,48 @@
     <t>An amazing property walking distance to the convention center. Was happily surprised with how exceptional The Lockwood Kitchen &amp; Bar was. The bar tenders are very attentive and always remember what I like to drink. They have recently went under a huge renovation and it shows!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r576956696-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576956696</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Attending T&amp;D show</t>
+  </si>
+  <si>
+    <t>I was in Denver Colorado from April 16th through April 19th  and the stayed at Crowne Plaza Denver, which is very conveniently located in downtown Denver and is walking distance to most of the important places including Colorado convention Center, where the T&amp;D show was. The hotel is clean and the prices are little bit on the higher end for Crowne Plaza hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Denver Colorado from April 16th through April 19th  and the stayed at Crowne Plaza Denver, which is very conveniently located in downtown Denver and is walking distance to most of the important places including Colorado convention Center, where the T&amp;D show was. The hotel is clean and the prices are little bit on the higher end for Crowne Plaza hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r576955206-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576955206</t>
+  </si>
+  <si>
+    <t>Visiting grandkids</t>
+  </si>
+  <si>
+    <t>What a great hotel.  The staff was friendly and helpful. The room were spacious and clean. We had a great view of the city... The parking was easy and convenient. Location downtown was perfect. The restaurant was great tooMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>What a great hotel.  The staff was friendly and helpful. The room were spacious and clean. We had a great view of the city... The parking was easy and convenient. Location downtown was perfect. The restaurant was great tooMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r576937568-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
     <t>576937568</t>
   </si>
   <si>
-    <t>04/30/2018</t>
-  </si>
-  <si>
     <t>awesome stay</t>
   </si>
   <si>
@@ -988,6 +1754,48 @@
     <t>This hotel is in a great location, right by the convention center and lots of shopping. The value of this hotel compared to the other downtown hotels is outstanding. Room was good size, bathroom a bit small but still big enough for getting ready. Beds were very comfortable, water pressure is okay and the TV was a good size for the room. One odd thing was that there was no dresser or place to put clothes away so if you stay for more than a few days you have to leave all your clothes in your suitcase. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r574903776-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574903776</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Not as great as it used to be</t>
+  </si>
+  <si>
+    <t>This isn’t particular to just the Crown Plaza,  it could apply to any Colorado hotel that isn’t making adjustments for Colorado’s laws regarding pot.  Non smoking evidently only applies to cigarettes which is unfortunate as marijuana reeks terribly.  Our floor and our room at times was permeated with that disgusting smell.  It would be greatly appreciated if the hotel could designate entire floors as truly non smoking.FYI for all IHG Reward members:  we have stayed here several times over the last 8 years and with Spire Elite status they have always waived the parking fee, but stated they will no longer waive the $35/night fee.  Not too big of a deal but a perk that will be missed.The hotel itself is gorgeous after the renovations. Love the pool especially.  Staff were all very friendly and the amenities tray of fruit, chocolate and water is a very nice touch.  We loved our room, the king suite has 1.5 baths which I hadn’t seen a room since a stay in a Bellagio suite!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kristopher P, Sales Coordinator  at Crowne Plaza Denver, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>This isn’t particular to just the Crown Plaza,  it could apply to any Colorado hotel that isn’t making adjustments for Colorado’s laws regarding pot.  Non smoking evidently only applies to cigarettes which is unfortunate as marijuana reeks terribly.  Our floor and our room at times was permeated with that disgusting smell.  It would be greatly appreciated if the hotel could designate entire floors as truly non smoking.FYI for all IHG Reward members:  we have stayed here several times over the last 8 years and with Spire Elite status they have always waived the parking fee, but stated they will no longer waive the $35/night fee.  Not too big of a deal but a perk that will be missed.The hotel itself is gorgeous after the renovations. Love the pool especially.  Staff were all very friendly and the amenities tray of fruit, chocolate and water is a very nice touch.  We loved our room, the king suite has 1.5 baths which I hadn’t seen a room since a stay in a Bellagio suite!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r574522711-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574522711</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>I recently stayed a week at the Crowne Plaza in downtown Denver for work and normally stay here multiple times throughout year. After the second night I noticed a few swollen bug bites on my hand. At first I thought it was nothing but the next morning had around a dozen swollen bites up and down my arm and knew that they were bed bug bites by the line they were in, type of bite and fact I got them multiple nights in a row while sleeping (other travelers I was with also confirmed that what the bites were). Called hotel to report to manager and he closed room off and said they were calling in third party company to inspect room even though they said they couldn’t find anything. Said they would call me back in 2 days with results. After 5 days I called again and left a couple messages with another manager but no return call. I had to throw away my expensive backpack, dress clothes I could not wash on hot and suitcase as I do not want my house infested. Avoid hotel unless you want nasty bites over your exposed skin, possible infect your home with bed bugs and have to throw backpack/suitcase. Honesty is obviously not their policy so who know a what other things they don’t disclose. Used to come here every time I was in Denver for work but never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed a week at the Crowne Plaza in downtown Denver for work and normally stay here multiple times throughout year. After the second night I noticed a few swollen bug bites on my hand. At first I thought it was nothing but the next morning had around a dozen swollen bites up and down my arm and knew that they were bed bug bites by the line they were in, type of bite and fact I got them multiple nights in a row while sleeping (other travelers I was with also confirmed that what the bites were). Called hotel to report to manager and he closed room off and said they were calling in third party company to inspect room even though they said they couldn’t find anything. Said they would call me back in 2 days with results. After 5 days I called again and left a couple messages with another manager but no return call. I had to throw away my expensive backpack, dress clothes I could not wash on hot and suitcase as I do not want my house infested. Avoid hotel unless you want nasty bites over your exposed skin, possible infect your home with bed bugs and have to throw backpack/suitcase. Honesty is obviously not their policy so who know a what other things they don’t disclose. Used to come here every time I was in Denver for work but never again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r574246566-Crowne_Plaza_Denver-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1052,6 +1860,21 @@
   </si>
   <si>
     <t>I spent a weekend last year at this hotel for the opening day of the Rockies and it was under construction - they didn't mention this during booking. The hotel is finished and very nice. I find the bathrooms too small and the sink too shallow. The rate was nice but I was disappointed when I went down stairs to find a cup of coffee, I was charged for the coffee at the bar.Service was good, staff friendly, nice renovations - just too many choices to stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119941-r572262581-Crowne_Plaza_Denver-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572262581</t>
+  </si>
+  <si>
+    <t>A wonderful weekend getaway!</t>
+  </si>
+  <si>
+    <t>Our trip was a very last minute plan.  I was thrilled to find a great room at a great price so close to the time of our travel.  The parking was convenient, being downtown Denver.  The hotel was VERY busy, but nevertheless took excellent care of everything.  Our room was great, the new beds extremely comfortable.  The hotel was SO close to all the shops and restaurants we wanted to check out.  The hotel staff were all exceptionally friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our trip was a very last minute plan.  I was thrilled to find a great room at a great price so close to the time of our travel.  The parking was convenient, being downtown Denver.  The hotel was VERY busy, but nevertheless took excellent care of everything.  Our room was great, the new beds extremely comfortable.  The hotel was SO close to all the shops and restaurants we wanted to check out.  The hotel staff were all exceptionally friendly and helpful.More</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +2409,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1634,36 +2457,44 @@
         <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1679,7 +2510,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1688,28 +2519,44 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1724,7 +2571,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1733,16 +2580,16 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -1751,19 +2598,17 @@
         <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1771,7 +2616,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1787,7 +2632,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1796,45 +2641,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1850,25 +2699,25 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -1885,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1907,7 +2756,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1916,25 +2765,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1945,10 +2794,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" t="s">
+        <v>83</v>
+      </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1964,7 +2817,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1973,22 +2826,26 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2001,7 +2858,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2017,7 +2874,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2026,49 +2883,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>103</v>
-      </c>
-      <c r="X10" t="s">
-        <v>85</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2084,7 +2931,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2093,31 +2940,29 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="s"/>
@@ -2127,7 +2972,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2143,7 +2988,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2152,25 +2997,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2181,10 +3026,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2200,7 +3049,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2209,33 +3058,31 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>113</v>
       </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
-      </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2247,7 +3094,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -2263,7 +3110,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2272,47 +3119,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" t="s">
-        <v>127</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="X14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2328,7 +3167,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2337,25 +3176,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2367,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="X15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -2389,7 +3228,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2398,25 +3237,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2428,13 +3267,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="X16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2450,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2459,47 +3298,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -2515,7 +3350,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2524,22 +3359,26 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2550,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -2572,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2581,25 +3420,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2611,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -2633,7 +3472,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2642,10 +3481,10 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
         <v>165</v>
@@ -2654,37 +3493,31 @@
         <v>166</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y20" t="s">
         <v>167</v>
-      </c>
-      <c r="X20" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21">
@@ -2700,49 +3533,55 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
         <v>170</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>171</v>
       </c>
-      <c r="J21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>172</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>173</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>59</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="X21" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="Y21" t="s">
         <v>174</v>
@@ -2785,15 +3624,15 @@
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -2804,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="X22" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Y22" t="s">
         <v>180</v>
@@ -2838,37 +3677,43 @@
         <v>182</v>
       </c>
       <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
         <v>183</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>184</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" t="s">
         <v>185</v>
       </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" t="s">
-        <v>92</v>
-      </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y23" t="s">
         <v>186</v>
@@ -2899,46 +3744,46 @@
         <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>92</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="X24" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
@@ -2954,7 +3799,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2963,26 +3808,22 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -2993,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="X25" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -3015,7 +3856,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3024,29 +3865,27 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="O26" t="s">
-        <v>92</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
@@ -3060,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="X26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
@@ -3082,7 +3921,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3091,49 +3930,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="X27" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -3149,7 +3982,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3158,25 +3991,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O28" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3188,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="X28" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
@@ -3210,7 +4043,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3219,49 +4052,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="X29" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
@@ -3277,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3286,49 +4113,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>59</v>
-      </c>
-      <c r="O30" t="s">
-        <v>92</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="X30" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -3344,7 +4161,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3353,27 +4170,29 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="n">
@@ -3387,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="Y31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
@@ -3409,7 +4228,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3418,47 +4237,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="X32" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="Y32" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
@@ -3474,7 +4289,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3483,26 +4298,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" t="s">
-        <v>92</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3513,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="X33" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -3535,7 +4346,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3544,10 +4355,10 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s">
         <v>254</v>
@@ -3556,34 +4367,30 @@
         <v>255</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="n">
         <v>5</v>
       </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="X34" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="Y34" t="s">
         <v>256</v>
@@ -3626,29 +4433,25 @@
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="X35" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="Y35" t="s">
         <v>262</v>
@@ -3691,17 +4494,19 @@
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="O36" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3710,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="X36" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
@@ -3732,54 +4537,58 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>269</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>270</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>271</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>272</v>
       </c>
-      <c r="L37" t="s">
-        <v>273</v>
-      </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O37" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="X37" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c r="Y37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
@@ -3795,58 +4604,56 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
         <v>277</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>278</v>
       </c>
-      <c r="J38" t="s">
-        <v>271</v>
-      </c>
-      <c r="K38" t="s">
-        <v>279</v>
-      </c>
-      <c r="L38" t="s">
-        <v>280</v>
-      </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="X38" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Y38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
@@ -3862,58 +4669,56 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>283</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>284</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>285</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>286</v>
       </c>
-      <c r="L39" t="s">
-        <v>287</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="O39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="X39" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Y39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
@@ -3929,34 +4734,34 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
         <v>290</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>291</v>
       </c>
-      <c r="J40" t="s">
-        <v>292</v>
-      </c>
-      <c r="K40" t="s">
-        <v>293</v>
-      </c>
-      <c r="L40" t="s">
-        <v>294</v>
-      </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="O40" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -3968,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="X40" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="Y40" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41">
@@ -3990,7 +4795,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3999,47 +4804,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K41" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="X41" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="Y41" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42">
@@ -4055,7 +4856,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4064,39 +4865,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+      <c r="N42" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="X42" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="Y42" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
@@ -4112,7 +4921,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4121,26 +4930,22 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>288</v>
-      </c>
-      <c r="O43" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
@@ -4151,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="X43" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="Y43" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44">
@@ -4173,52 +4978,56 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s">
         <v>316</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>317</v>
       </c>
-      <c r="J44" t="s">
-        <v>318</v>
-      </c>
-      <c r="K44" t="s">
-        <v>319</v>
-      </c>
-      <c r="L44" t="s">
-        <v>320</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>288</v>
-      </c>
       <c r="O44" t="s">
-        <v>92</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="X44" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y44" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45">
@@ -4234,7 +5043,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4243,26 +5052,22 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J45" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>288</v>
-      </c>
-      <c r="O45" t="s">
-        <v>92</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
@@ -4273,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="X45" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y45" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
@@ -4295,7 +5100,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4304,47 +5109,2898 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J46" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="O46" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="n">
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>309</v>
+      </c>
+      <c r="X46" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s">
+        <v>333</v>
+      </c>
+      <c r="M47" t="n">
         <v>3</v>
       </c>
-      <c r="T46" t="s"/>
-      <c r="U46" t="n">
+      <c r="N47" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>309</v>
+      </c>
+      <c r="X47" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>192</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>340</v>
+      </c>
+      <c r="X48" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>220</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" t="s">
+        <v>75</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>340</v>
+      </c>
+      <c r="X49" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" t="s">
+        <v>75</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>340</v>
+      </c>
+      <c r="X50" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
         <v>4</v>
       </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s">
-        <v>335</v>
-      </c>
-      <c r="X46" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>337</v>
+      <c r="N51" t="s">
+        <v>60</v>
+      </c>
+      <c r="O51" t="s">
+        <v>185</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>309</v>
+      </c>
+      <c r="X51" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>362</v>
+      </c>
+      <c r="L52" t="s">
+        <v>363</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>340</v>
+      </c>
+      <c r="X52" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>220</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K53" t="s">
+        <v>368</v>
+      </c>
+      <c r="L53" t="s">
+        <v>369</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>309</v>
+      </c>
+      <c r="X53" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>220</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s">
+        <v>374</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>309</v>
+      </c>
+      <c r="X54" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s">
+        <v>379</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>60</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>309</v>
+      </c>
+      <c r="X55" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>220</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>381</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>382</v>
+      </c>
+      <c r="J56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K56" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" t="s">
+        <v>385</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>60</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>309</v>
+      </c>
+      <c r="X56" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>220</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>388</v>
+      </c>
+      <c r="J57" t="s">
+        <v>389</v>
+      </c>
+      <c r="K57" t="s">
+        <v>390</v>
+      </c>
+      <c r="L57" t="s">
+        <v>391</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>309</v>
+      </c>
+      <c r="X57" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>394</v>
+      </c>
+      <c r="J58" t="s">
+        <v>395</v>
+      </c>
+      <c r="K58" t="s">
+        <v>396</v>
+      </c>
+      <c r="L58" t="s">
+        <v>397</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>60</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>309</v>
+      </c>
+      <c r="X58" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>220</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" t="s">
+        <v>402</v>
+      </c>
+      <c r="L59" t="s">
+        <v>403</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>60</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>62</v>
+      </c>
+      <c r="X59" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>401</v>
+      </c>
+      <c r="K60" t="s">
+        <v>407</v>
+      </c>
+      <c r="L60" t="s">
+        <v>408</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>60</v>
+      </c>
+      <c r="O60" t="s">
+        <v>75</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>62</v>
+      </c>
+      <c r="X60" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>220</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>60</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>62</v>
+      </c>
+      <c r="X61" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>220</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>421</v>
+      </c>
+      <c r="X62" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>220</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>424</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>425</v>
+      </c>
+      <c r="J63" t="s">
+        <v>418</v>
+      </c>
+      <c r="K63" t="s">
+        <v>426</v>
+      </c>
+      <c r="L63" t="s">
+        <v>427</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>428</v>
+      </c>
+      <c r="X63" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>220</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>432</v>
+      </c>
+      <c r="J64" t="s">
+        <v>433</v>
+      </c>
+      <c r="K64" t="s">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s">
+        <v>435</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>60</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>428</v>
+      </c>
+      <c r="X64" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>220</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>437</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>438</v>
+      </c>
+      <c r="J65" t="s">
+        <v>439</v>
+      </c>
+      <c r="K65" t="s">
+        <v>440</v>
+      </c>
+      <c r="L65" t="s">
+        <v>441</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>60</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>428</v>
+      </c>
+      <c r="X65" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>220</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>444</v>
+      </c>
+      <c r="J66" t="s">
+        <v>445</v>
+      </c>
+      <c r="K66" t="s">
+        <v>446</v>
+      </c>
+      <c r="L66" t="s">
+        <v>447</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>60</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>428</v>
+      </c>
+      <c r="X66" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>450</v>
+      </c>
+      <c r="J67" t="s">
+        <v>445</v>
+      </c>
+      <c r="K67" t="s">
+        <v>451</v>
+      </c>
+      <c r="L67" t="s">
+        <v>452</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>60</v>
+      </c>
+      <c r="O67" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>428</v>
+      </c>
+      <c r="X67" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>454</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>455</v>
+      </c>
+      <c r="J68" t="s">
+        <v>445</v>
+      </c>
+      <c r="K68" t="s">
+        <v>456</v>
+      </c>
+      <c r="L68" t="s">
+        <v>457</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>60</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>428</v>
+      </c>
+      <c r="X68" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>220</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>459</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>460</v>
+      </c>
+      <c r="J69" t="s">
+        <v>461</v>
+      </c>
+      <c r="K69" t="s">
+        <v>462</v>
+      </c>
+      <c r="L69" t="s">
+        <v>463</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>60</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>464</v>
+      </c>
+      <c r="X69" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>220</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>467</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>468</v>
+      </c>
+      <c r="J70" t="s">
+        <v>469</v>
+      </c>
+      <c r="K70" t="s">
+        <v>470</v>
+      </c>
+      <c r="L70" t="s">
+        <v>471</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>60</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>464</v>
+      </c>
+      <c r="X70" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>220</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>473</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" t="s">
+        <v>469</v>
+      </c>
+      <c r="K71" t="s">
+        <v>475</v>
+      </c>
+      <c r="L71" t="s">
+        <v>476</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>60</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>464</v>
+      </c>
+      <c r="X71" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>220</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>478</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72" t="s">
+        <v>480</v>
+      </c>
+      <c r="K72" t="s">
+        <v>481</v>
+      </c>
+      <c r="L72" t="s">
+        <v>482</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>60</v>
+      </c>
+      <c r="O72" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>464</v>
+      </c>
+      <c r="X72" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>484</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>485</v>
+      </c>
+      <c r="J73" t="s">
+        <v>486</v>
+      </c>
+      <c r="K73" t="s">
+        <v>487</v>
+      </c>
+      <c r="L73" t="s">
+        <v>488</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>60</v>
+      </c>
+      <c r="O73" t="s">
+        <v>185</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>464</v>
+      </c>
+      <c r="X73" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>490</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>491</v>
+      </c>
+      <c r="J74" t="s">
+        <v>486</v>
+      </c>
+      <c r="K74" t="s">
+        <v>492</v>
+      </c>
+      <c r="L74" t="s">
+        <v>493</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>494</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>464</v>
+      </c>
+      <c r="X74" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>496</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>497</v>
+      </c>
+      <c r="J75" t="s">
+        <v>498</v>
+      </c>
+      <c r="K75" t="s">
+        <v>499</v>
+      </c>
+      <c r="L75" t="s">
+        <v>500</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>60</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>501</v>
+      </c>
+      <c r="X75" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>220</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>504</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>505</v>
+      </c>
+      <c r="J76" t="s">
+        <v>498</v>
+      </c>
+      <c r="K76" t="s">
+        <v>506</v>
+      </c>
+      <c r="L76" t="s">
+        <v>507</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>60</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>501</v>
+      </c>
+      <c r="X76" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>509</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" t="s">
+        <v>498</v>
+      </c>
+      <c r="K77" t="s">
+        <v>511</v>
+      </c>
+      <c r="L77" t="s">
+        <v>512</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>60</v>
+      </c>
+      <c r="O77" t="s">
+        <v>75</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>501</v>
+      </c>
+      <c r="X77" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>220</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>514</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>515</v>
+      </c>
+      <c r="J78" t="s">
+        <v>498</v>
+      </c>
+      <c r="K78" t="s">
+        <v>516</v>
+      </c>
+      <c r="L78" t="s">
+        <v>517</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>518</v>
+      </c>
+      <c r="O78" t="s">
+        <v>185</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>501</v>
+      </c>
+      <c r="X78" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>220</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>520</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>521</v>
+      </c>
+      <c r="J79" t="s">
+        <v>522</v>
+      </c>
+      <c r="K79" t="s">
+        <v>523</v>
+      </c>
+      <c r="L79" t="s">
+        <v>524</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>525</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>501</v>
+      </c>
+      <c r="X79" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>220</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>527</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>528</v>
+      </c>
+      <c r="J80" t="s">
+        <v>529</v>
+      </c>
+      <c r="K80" t="s">
+        <v>530</v>
+      </c>
+      <c r="L80" t="s">
+        <v>531</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>494</v>
+      </c>
+      <c r="O80" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>532</v>
+      </c>
+      <c r="X80" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>220</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>535</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>536</v>
+      </c>
+      <c r="J81" t="s">
+        <v>537</v>
+      </c>
+      <c r="K81" t="s">
+        <v>538</v>
+      </c>
+      <c r="L81" t="s">
+        <v>539</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>525</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>532</v>
+      </c>
+      <c r="X81" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>220</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>541</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>542</v>
+      </c>
+      <c r="J82" t="s">
+        <v>537</v>
+      </c>
+      <c r="K82" t="s">
+        <v>543</v>
+      </c>
+      <c r="L82" t="s">
+        <v>544</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>545</v>
+      </c>
+      <c r="O82" t="s">
+        <v>75</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>532</v>
+      </c>
+      <c r="X82" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>220</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>547</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>548</v>
+      </c>
+      <c r="J83" t="s">
+        <v>537</v>
+      </c>
+      <c r="K83" t="s">
+        <v>549</v>
+      </c>
+      <c r="L83" t="s">
+        <v>550</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>494</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>532</v>
+      </c>
+      <c r="X83" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>220</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>552</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>553</v>
+      </c>
+      <c r="J84" t="s">
+        <v>554</v>
+      </c>
+      <c r="K84" t="s">
+        <v>555</v>
+      </c>
+      <c r="L84" t="s">
+        <v>556</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>532</v>
+      </c>
+      <c r="X84" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>558</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>559</v>
+      </c>
+      <c r="J85" t="s">
+        <v>560</v>
+      </c>
+      <c r="K85" t="s">
+        <v>561</v>
+      </c>
+      <c r="L85" t="s">
+        <v>562</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>525</v>
+      </c>
+      <c r="O85" t="s">
+        <v>75</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>532</v>
+      </c>
+      <c r="X85" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>220</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>564</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>565</v>
+      </c>
+      <c r="J86" t="s">
+        <v>566</v>
+      </c>
+      <c r="K86" t="s">
+        <v>567</v>
+      </c>
+      <c r="L86" t="s">
+        <v>568</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>569</v>
+      </c>
+      <c r="X86" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>220</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>572</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>573</v>
+      </c>
+      <c r="J87" t="s">
+        <v>574</v>
+      </c>
+      <c r="K87" t="s">
+        <v>575</v>
+      </c>
+      <c r="L87" t="s">
+        <v>576</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>525</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>569</v>
+      </c>
+      <c r="X87" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>220</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>578</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>579</v>
+      </c>
+      <c r="J88" t="s">
+        <v>580</v>
+      </c>
+      <c r="K88" t="s">
+        <v>581</v>
+      </c>
+      <c r="L88" t="s">
+        <v>582</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>525</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>583</v>
+      </c>
+      <c r="X88" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>220</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>586</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>587</v>
+      </c>
+      <c r="J89" t="s">
+        <v>588</v>
+      </c>
+      <c r="K89" t="s">
+        <v>589</v>
+      </c>
+      <c r="L89" t="s">
+        <v>590</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>525</v>
+      </c>
+      <c r="O89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>583</v>
+      </c>
+      <c r="X89" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>220</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>592</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>593</v>
+      </c>
+      <c r="J90" t="s">
+        <v>594</v>
+      </c>
+      <c r="K90" t="s">
+        <v>595</v>
+      </c>
+      <c r="L90" t="s">
+        <v>596</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>525</v>
+      </c>
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>597</v>
+      </c>
+      <c r="X90" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>220</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>600</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>601</v>
+      </c>
+      <c r="J91" t="s">
+        <v>594</v>
+      </c>
+      <c r="K91" t="s">
+        <v>602</v>
+      </c>
+      <c r="L91" t="s">
+        <v>603</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>525</v>
+      </c>
+      <c r="O91" t="s">
+        <v>70</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>597</v>
+      </c>
+      <c r="X91" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
